--- a/ASHRAE901_ApartmentHighRise_STD2019_ElPasoTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_ElPasoTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1638.04</t>
+          <t>2424.72</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1276.34</t>
+          <t>2333.48</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>407.82</t>
+          <t>538.67</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1098.88</t>
+          <t>2041.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>907.36</t>
+          <t>1670.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>902.75</t>
+          <t>1665.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1182.20</t>
+          <t>1696.24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1177.75</t>
+          <t>1761.79</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2014.47</t>
+          <t>2893.35</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1540.08</t>
+          <t>2773.36</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1663.08</t>
+          <t>2488.56</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1271.18</t>
+          <t>2317.06</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1017.41</t>
+          <t>1847.19</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1011.64</t>
+          <t>1839.98</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1303.71</t>
+          <t>1930.61</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1298.63</t>
+          <t>1928.01</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2011.74</t>
+          <t>2873.26</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1537.07</t>
+          <t>2763.07</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1653.67</t>
+          <t>2407.86</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1269.70</t>
+          <t>2312.04</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1011.11</t>
+          <t>1835.93</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1005.39</t>
+          <t>1828.85</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1297.47</t>
+          <t>1909.66</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1296.32</t>
+          <t>1904.09</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2107.12</t>
+          <t>2865.47</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1534.44</t>
+          <t>2768.37</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1663.69</t>
+          <t>2414.07</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1269.63</t>
+          <t>2321.23</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1009.07</t>
+          <t>1840.27</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1003.37</t>
+          <t>1833.34</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1446.77</t>
+          <t>1864.97</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1435.93</t>
+          <t>1859.91</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2025.04</t>
+          <t>2822.31</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1528.96</t>
+          <t>2774.86</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1671.52</t>
+          <t>2422.59</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1266.94</t>
+          <t>2330.24</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1005.62</t>
+          <t>1844.19</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>999.96</t>
+          <t>1837.19</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1307.26</t>
+          <t>1869.47</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1301.51</t>
+          <t>1862.13</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2028.73</t>
+          <t>2823.82</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>1523.29</t>
+          <t>2777.16</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>1677.14</t>
+          <t>2430.27</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1263.85</t>
+          <t>2335.00</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1003.86</t>
+          <t>1845.27</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>998.29</t>
+          <t>1838.35</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1310.70</t>
+          <t>1869.61</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1305.07</t>
+          <t>1863.55</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2030.81</t>
+          <t>2829.19</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>1518.49</t>
+          <t>2778.30</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>1703.17</t>
+          <t>2439.27</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1261.54</t>
+          <t>2333.51</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1001.21</t>
+          <t>1845.89</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>995.75</t>
+          <t>1838.97</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1313.72</t>
+          <t>1873.96</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1308.10</t>
+          <t>1867.06</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2035.19</t>
+          <t>2840.34</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>1518.77</t>
+          <t>2790.81</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>1710.44</t>
+          <t>2451.97</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1264.71</t>
+          <t>2347.02</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1003.63</t>
+          <t>1853.10</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>998.36</t>
+          <t>1846.26</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1321.06</t>
+          <t>1884.34</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1315.45</t>
+          <t>1877.27</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2113.80</t>
+          <t>2934.10</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>1578.25</t>
+          <t>2878.92</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>1727.68</t>
+          <t>2535.80</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1325.61</t>
+          <t>2443.24</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1055.37</t>
+          <t>1943.56</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1050.40</t>
+          <t>1938.45</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1396.32</t>
+          <t>1971.33</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1389.83</t>
+          <t>1964.53</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3223.63</t>
+          <t>3669.72</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>1967.26</t>
+          <t>3537.76</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>2126.40</t>
+          <t>3228.32</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1591.34</t>
+          <t>2993.67</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1306.46</t>
+          <t>2399.26</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1296.51</t>
+          <t>2381.58</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2426.51</t>
+          <t>2540.96</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2424.39</t>
+          <t>2540.25</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>288.28</t>
+          <t>2458.03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>122.53</t>
+          <t>2424.90</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>285.35</t>
+          <t>587.40</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>121.89</t>
+          <t>2106.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>133.26</t>
+          <t>1717.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>133.06</t>
+          <t>1710.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>845.98</t>
+          <t>1758.09</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>819.62</t>
+          <t>1661.82</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1715.12</t>
+          <t>2932.49</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>129.18</t>
+          <t>2869.24</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1356.04</t>
+          <t>2458.79</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>128.67</t>
+          <t>2380.42</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>225.42</t>
+          <t>1883.35</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>226.01</t>
+          <t>1875.43</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1450.31</t>
+          <t>1876.24</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1442.10</t>
+          <t>1868.16</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1892.87</t>
+          <t>2926.41</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>290.29</t>
+          <t>2849.52</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1343.87</t>
+          <t>2461.52</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>131.08</t>
+          <t>2378.15</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>319.06</t>
+          <t>1863.77</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>319.15</t>
+          <t>1860.81</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1447.24</t>
+          <t>1862.54</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1438.57</t>
+          <t>1853.91</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>1818.93</t>
+          <t>2934.79</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>267.06</t>
+          <t>2851.05</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1241.43</t>
+          <t>2468.29</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>131.13</t>
+          <t>2381.98</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>370.17</t>
+          <t>1903.30</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>370.06</t>
+          <t>1893.88</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1452.13</t>
+          <t>1866.99</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1443.49</t>
+          <t>1856.36</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>1654.24</t>
+          <t>2931.64</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>130.75</t>
+          <t>2860.18</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1387.10</t>
+          <t>2476.06</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>130.28</t>
+          <t>2404.21</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>366.02</t>
+          <t>1909.54</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>365.93</t>
+          <t>1893.67</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1455.06</t>
+          <t>1871.26</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1446.54</t>
+          <t>1862.82</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>1455.40</t>
+          <t>2931.50</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>129.57</t>
+          <t>2880.75</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>873.89</t>
+          <t>2480.80</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>129.14</t>
+          <t>2407.60</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>351.52</t>
+          <t>1906.93</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>351.61</t>
+          <t>1899.17</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1455.84</t>
+          <t>1868.13</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1447.43</t>
+          <t>1861.65</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>1234.13</t>
+          <t>2934.06</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>128.21</t>
+          <t>2910.26</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>645.15</t>
+          <t>2488.83</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>127.86</t>
+          <t>2404.50</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>327.65</t>
+          <t>1911.79</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>328.44</t>
+          <t>1904.06</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1380.94</t>
+          <t>1869.73</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1318.69</t>
+          <t>1864.19</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>988.92</t>
+          <t>2941.32</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>126.44</t>
+          <t>2931.98</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>392.78</t>
+          <t>2497.38</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>126.25</t>
+          <t>2419.55</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>284.16</t>
+          <t>1923.72</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>286.90</t>
+          <t>1916.06</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1149.09</t>
+          <t>1877.01</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1088.41</t>
+          <t>1869.07</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>1485.12</t>
+          <t>3031.19</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>123.59</t>
+          <t>3018.44</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>1266.56</t>
+          <t>2565.72</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>123.82</t>
+          <t>2519.48</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>206.14</t>
+          <t>2012.22</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>214.30</t>
+          <t>2004.56</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1100.25</t>
+          <t>1966.68</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1033.23</t>
+          <t>1959.18</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>1635.61</t>
+          <t>3859.53</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>344.17</t>
+          <t>3763.14</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>1429.73</t>
+          <t>3308.15</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>152.23</t>
+          <t>3089.01</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>298.43</t>
+          <t>2444.34</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>288.19</t>
+          <t>2426.09</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1299.08</t>
+          <t>2628.57</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1296.77</t>
+          <t>2625.48</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1626.06</t>
+          <t>2454.17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1520.58</t>
+          <t>2414.03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>289.82</t>
+          <t>406.43</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1272.44</t>
+          <t>2116.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1125.06</t>
+          <t>1711.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1121.47</t>
+          <t>1705.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1065.75</t>
+          <t>1721.60</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1066.95</t>
+          <t>1717.77</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2103.18</t>
+          <t>2906.66</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1979.08</t>
+          <t>2892.97</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1727.33</t>
+          <t>2445.67</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1592.18</t>
+          <t>2390.49</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1254.91</t>
+          <t>1902.10</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1250.46</t>
+          <t>1902.73</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1245.64</t>
+          <t>1906.53</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1242.97</t>
+          <t>1903.58</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2107.26</t>
+          <t>2890.43</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1996.55</t>
+          <t>2902.56</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1706.02</t>
+          <t>2433.99</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1611.74</t>
+          <t>2391.20</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1253.10</t>
+          <t>1894.24</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1248.83</t>
+          <t>1885.99</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1248.64</t>
+          <t>1879.89</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1260.17</t>
+          <t>1874.73</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2111.31</t>
+          <t>2902.94</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2005.30</t>
+          <t>2900.60</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1708.46</t>
+          <t>2436.17</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1623.67</t>
+          <t>2380.63</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1255.77</t>
+          <t>1897.76</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1251.57</t>
+          <t>1888.85</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1266.68</t>
+          <t>1872.03</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1271.58</t>
+          <t>1864.22</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2104.86</t>
+          <t>2907.91</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2004.49</t>
+          <t>2900.37</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1707.48</t>
+          <t>2456.80</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1627.09</t>
+          <t>2389.96</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1256.75</t>
+          <t>1902.49</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1252.55</t>
+          <t>1894.73</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1253.91</t>
+          <t>1817.46</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1248.70</t>
+          <t>1807.49</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2098.82</t>
+          <t>2915.55</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2004.27</t>
+          <t>2904.38</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1700.83</t>
+          <t>2484.86</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1629.08</t>
+          <t>2399.70</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1259.37</t>
+          <t>1907.79</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1255.25</t>
+          <t>1900.07</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1243.93</t>
+          <t>1833.30</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1240.16</t>
+          <t>1825.82</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2095.34</t>
+          <t>2924.33</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2005.12</t>
+          <t>2917.29</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>1727.21</t>
+          <t>2493.01</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1631.39</t>
+          <t>2408.80</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1261.02</t>
+          <t>1913.91</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1256.85</t>
+          <t>1906.24</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1241.87</t>
+          <t>1839.52</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1238.78</t>
+          <t>1831.30</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2102.10</t>
+          <t>2939.04</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2017.19</t>
+          <t>2927.09</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>1737.99</t>
+          <t>2509.84</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1645.99</t>
+          <t>2425.02</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1268.37</t>
+          <t>1926.86</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1264.32</t>
+          <t>1919.29</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1246.20</t>
+          <t>1849.94</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1248.14</t>
+          <t>1841.82</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2199.77</t>
+          <t>3032.18</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2119.85</t>
+          <t>3011.44</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>1799.91</t>
+          <t>2590.73</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1752.22</t>
+          <t>2523.14</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1317.88</t>
+          <t>2016.74</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1314.10</t>
+          <t>2009.24</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1338.32</t>
+          <t>1945.11</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1335.38</t>
+          <t>1935.67</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>2915.61</t>
+          <t>3815.87</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>2745.62</t>
+          <t>3736.12</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2454.15</t>
+          <t>3371.90</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2255.68</t>
+          <t>3117.65</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1755.39</t>
+          <t>2478.86</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1743.93</t>
+          <t>2460.66</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>1941.08</t>
+          <t>2582.66</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>1939.23</t>
+          <t>2582.93</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1606.26</t>
+          <t>2357.33</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1731.55</t>
+          <t>2395.92</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>230.46</t>
+          <t>661.57</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1454.05</t>
+          <t>2136.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1196.29</t>
+          <t>1698.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1190.80</t>
+          <t>1693.28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1154.80</t>
+          <t>1626.21</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1166.16</t>
+          <t>1646.86</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2082.67</t>
+          <t>2782.28</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2142.28</t>
+          <t>2861.50</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1806.92</t>
+          <t>2413.06</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1691.10</t>
+          <t>2420.44</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1383.53</t>
+          <t>1932.07</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1378.89</t>
+          <t>1918.57</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1306.87</t>
+          <t>1771.12</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1304.93</t>
+          <t>1806.09</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2101.62</t>
+          <t>2779.74</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2126.67</t>
+          <t>2842.26</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1760.99</t>
+          <t>2386.49</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1723.58</t>
+          <t>2404.43</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1373.47</t>
+          <t>1921.39</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1369.60</t>
+          <t>1914.96</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1293.90</t>
+          <t>1814.56</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1289.16</t>
+          <t>1802.79</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2104.96</t>
+          <t>2805.86</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2161.04</t>
+          <t>2844.94</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1768.86</t>
+          <t>2392.06</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1743.37</t>
+          <t>2409.74</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1377.26</t>
+          <t>1915.33</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1373.47</t>
+          <t>1916.33</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1298.78</t>
+          <t>1775.52</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1293.25</t>
+          <t>1812.22</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2103.92</t>
+          <t>2842.72</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2161.58</t>
+          <t>2867.57</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1777.99</t>
+          <t>2398.24</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1745.11</t>
+          <t>2413.06</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1381.36</t>
+          <t>1897.88</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1377.62</t>
+          <t>1890.63</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1304.71</t>
+          <t>1792.32</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1298.98</t>
+          <t>1784.58</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2101.85</t>
+          <t>2851.57</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2161.31</t>
+          <t>2887.07</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1784.55</t>
+          <t>2389.28</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1745.74</t>
+          <t>2419.42</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1389.10</t>
+          <t>1900.98</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1385.43</t>
+          <t>1893.75</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1310.08</t>
+          <t>1798.41</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1304.24</t>
+          <t>1794.27</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2100.43</t>
+          <t>2853.28</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2162.20</t>
+          <t>2905.05</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1815.86</t>
+          <t>2394.87</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1747.30</t>
+          <t>2425.44</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1392.93</t>
+          <t>1899.48</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1389.46</t>
+          <t>1897.86</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1315.74</t>
+          <t>1802.79</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1309.83</t>
+          <t>1795.95</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2109.80</t>
+          <t>2866.15</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2171.43</t>
+          <t>2910.64</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>1815.23</t>
+          <t>2407.90</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1759.79</t>
+          <t>2445.75</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1402.31</t>
+          <t>1907.82</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1398.02</t>
+          <t>1900.77</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1326.97</t>
+          <t>1811.03</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1321.06</t>
+          <t>1804.21</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2186.77</t>
+          <t>2957.83</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2249.52</t>
+          <t>3002.00</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>1870.14</t>
+          <t>2492.37</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1835.97</t>
+          <t>2546.70</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1472.17</t>
+          <t>2011.54</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1468.08</t>
+          <t>2004.18</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1406.53</t>
+          <t>1910.50</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1400.63</t>
+          <t>1904.46</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>2679.75</t>
+          <t>3691.06</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>2643.34</t>
+          <t>3639.75</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2264.33</t>
+          <t>3223.88</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2226.62</t>
+          <t>3121.67</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1788.69</t>
+          <t>2457.62</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1774.15</t>
+          <t>2443.55</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1835.31</t>
+          <t>2517.54</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1840.96</t>
+          <t>2516.77</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1912.66</t>
+          <t>2324.66</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2029.66</t>
+          <t>2402.72</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>36.57</t>
+          <t>1021.14</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1730.61</t>
+          <t>2119.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1388.76</t>
+          <t>1712.83</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1383.95</t>
+          <t>1707.04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1284.22</t>
+          <t>1622.71</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1301.94</t>
+          <t>1618.99</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2332.24</t>
+          <t>2731.14</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2447.61</t>
+          <t>2809.94</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1960.16</t>
+          <t>2374.02</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2006.30</t>
+          <t>2365.58</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1555.08</t>
+          <t>1867.89</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1548.86</t>
+          <t>1860.34</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1434.21</t>
+          <t>1761.96</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1433.40</t>
+          <t>1755.34</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2318.94</t>
+          <t>2722.51</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2434.31</t>
+          <t>2805.68</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1886.34</t>
+          <t>2331.59</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1998.77</t>
+          <t>2353.85</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1541.22</t>
+          <t>1849.26</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1535.19</t>
+          <t>1841.76</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1422.67</t>
+          <t>1744.69</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1417.48</t>
+          <t>1737.37</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2324.31</t>
+          <t>2741.76</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2438.76</t>
+          <t>2818.66</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>1890.22</t>
+          <t>2342.72</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2006.14</t>
+          <t>2366.23</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1543.84</t>
+          <t>1853.81</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1537.83</t>
+          <t>1846.38</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1426.93</t>
+          <t>1749.08</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1421.11</t>
+          <t>1741.67</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2330.28</t>
+          <t>2761.08</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2443.77</t>
+          <t>2827.15</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1896.83</t>
+          <t>2357.66</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2013.38</t>
+          <t>2382.18</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1547.31</t>
+          <t>1862.00</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1541.28</t>
+          <t>1854.59</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1431.37</t>
+          <t>1755.64</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1425.67</t>
+          <t>1748.26</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2335.50</t>
+          <t>2769.76</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2448.32</t>
+          <t>2835.03</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>1903.47</t>
+          <t>2371.42</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2019.45</t>
+          <t>2392.27</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1554.60</t>
+          <t>1869.68</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1548.55</t>
+          <t>1862.30</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1435.54</t>
+          <t>1761.89</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1430.27</t>
+          <t>1754.53</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2341.05</t>
+          <t>2778.55</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2453.21</t>
+          <t>2852.69</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>1942.98</t>
+          <t>2384.76</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2025.64</t>
+          <t>2402.23</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1557.72</t>
+          <t>1877.67</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1551.61</t>
+          <t>1870.32</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1439.26</t>
+          <t>1768.76</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1433.81</t>
+          <t>1761.40</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2353.16</t>
+          <t>2793.60</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2464.95</t>
+          <t>2867.51</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>1957.18</t>
+          <t>2407.62</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2038.41</t>
+          <t>2420.13</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1567.85</t>
+          <t>1892.67</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1561.77</t>
+          <t>1885.36</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1449.07</t>
+          <t>1783.86</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1443.10</t>
+          <t>1776.53</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2448.57</t>
+          <t>2887.24</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2571.87</t>
+          <t>2954.21</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2015.60</t>
+          <t>2493.50</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2132.85</t>
+          <t>2521.37</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1648.25</t>
+          <t>1983.04</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1642.17</t>
+          <t>1975.68</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1531.48</t>
+          <t>1873.27</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1525.48</t>
+          <t>1865.92</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>2998.81</t>
+          <t>3484.39</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3091.45</t>
+          <t>3537.11</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2539.91</t>
+          <t>3058.36</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2586.52</t>
+          <t>3063.57</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2057.25</t>
+          <t>2408.48</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2040.70</t>
+          <t>2390.48</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>1996.25</t>
+          <t>2408.51</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>1992.08</t>
+          <t>2406.34</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1626.26</t>
+          <t>2272.52</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1739.87</t>
+          <t>2337.27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>310.64</t>
+          <t>839.51</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1447.88</t>
+          <t>2044.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1141.73</t>
+          <t>1667.06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1140.11</t>
+          <t>1661.38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1072.38</t>
+          <t>1572.49</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1094.38</t>
+          <t>1569.05</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2006.67</t>
+          <t>2649.10</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2125.62</t>
+          <t>2722.60</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1670.63</t>
+          <t>2280.53</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1695.28</t>
+          <t>2284.84</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1320.43</t>
+          <t>1816.81</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1318.41</t>
+          <t>1809.41</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1227.94</t>
+          <t>1709.61</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1232.78</t>
+          <t>1703.41</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1984.03</t>
+          <t>2629.82</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2100.71</t>
+          <t>2699.27</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1595.70</t>
+          <t>2246.59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1681.43</t>
+          <t>2267.54</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1311.71</t>
+          <t>1796.07</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1310.06</t>
+          <t>1788.77</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1219.84</t>
+          <t>1690.35</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1216.78</t>
+          <t>1683.28</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1986.18</t>
+          <t>2634.81</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2101.24</t>
+          <t>2703.50</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1590.15</t>
+          <t>2250.08</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1684.87</t>
+          <t>2275.59</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1314.09</t>
+          <t>1798.63</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1312.55</t>
+          <t>1791.40</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1222.95</t>
+          <t>1693.47</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1218.77</t>
+          <t>1686.26</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>1990.74</t>
+          <t>2642.59</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2104.55</t>
+          <t>2710.60</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1592.51</t>
+          <t>2261.73</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1690.10</t>
+          <t>2285.55</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1316.14</t>
+          <t>1803.82</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1314.53</t>
+          <t>1796.64</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1226.15</t>
+          <t>1699.06</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1222.67</t>
+          <t>1691.86</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>1995.15</t>
+          <t>2650.08</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2107.97</t>
+          <t>2717.50</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1596.86</t>
+          <t>2272.82</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1695.09</t>
+          <t>2294.80</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1321.50</t>
+          <t>1808.95</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1319.79</t>
+          <t>1801.80</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1228.49</t>
+          <t>1704.53</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1226.19</t>
+          <t>1697.36</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>1999.93</t>
+          <t>2657.94</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2112.25</t>
+          <t>2733.95</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1625.37</t>
+          <t>2283.84</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1699.91</t>
+          <t>2304.11</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1322.86</t>
+          <t>1814.66</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1321.07</t>
+          <t>1807.55</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1230.51</t>
+          <t>1710.53</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1228.53</t>
+          <t>1703.39</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2010.52</t>
+          <t>2672.04</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2122.53</t>
+          <t>2748.21</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1634.32</t>
+          <t>2300.67</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1711.13</t>
+          <t>2319.93</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1327.97</t>
+          <t>1827.27</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1326.12</t>
+          <t>1820.20</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1235.94</t>
+          <t>1723.31</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1234.02</t>
+          <t>1716.22</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2094.05</t>
+          <t>2763.13</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2210.72</t>
+          <t>2838.49</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1685.48</t>
+          <t>2388.19</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1795.48</t>
+          <t>2414.69</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1374.11</t>
+          <t>1913.13</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1381.06</t>
+          <t>1906.00</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1297.54</t>
+          <t>1808.35</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1295.91</t>
+          <t>1801.23</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2496.45</t>
+          <t>3292.50</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>2593.76</t>
+          <t>3345.44</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2037.30</t>
+          <t>2870.97</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2250.10</t>
+          <t>2892.93</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1765.82</t>
+          <t>2291.82</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1750.56</t>
+          <t>2274.96</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1703.95</t>
+          <t>2321.39</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1700.13</t>
+          <t>2318.99</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1709.48</t>
+          <t>2231.07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1811.30</t>
+          <t>2295.37</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>467.97</t>
+          <t>1118.05</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1529.99</t>
+          <t>2020.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1181.28</t>
+          <t>1634.01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1177.29</t>
+          <t>1628.64</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1084.47</t>
+          <t>1541.43</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1102.23</t>
+          <t>1543.68</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2068.35</t>
+          <t>2600.31</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2164.27</t>
+          <t>2670.89</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1713.78</t>
+          <t>2267.61</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1749.22</t>
+          <t>2254.69</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1317.50</t>
+          <t>1778.35</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1312.86</t>
+          <t>1771.44</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1202.23</t>
+          <t>1673.81</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1206.55</t>
+          <t>1670.37</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2042.96</t>
+          <t>2565.35</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2141.86</t>
+          <t>2630.88</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1642.94</t>
+          <t>2208.41</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1727.43</t>
+          <t>2224.57</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1300.65</t>
+          <t>1750.00</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1296.18</t>
+          <t>1742.99</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1186.07</t>
+          <t>1652.92</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1181.28</t>
+          <t>1646.27</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2043.58</t>
+          <t>2570.20</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2145.27</t>
+          <t>2634.25</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1636.39</t>
+          <t>2211.82</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1731.62</t>
+          <t>2231.99</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1303.54</t>
+          <t>1751.66</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1299.13</t>
+          <t>1744.73</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1190.03</t>
+          <t>1656.14</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1184.39</t>
+          <t>1649.24</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2047.35</t>
+          <t>2577.92</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2150.32</t>
+          <t>2640.57</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1640.83</t>
+          <t>2223.17</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1738.54</t>
+          <t>2241.34</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1308.16</t>
+          <t>1756.10</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1303.74</t>
+          <t>1749.21</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1195.80</t>
+          <t>1661.63</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1189.98</t>
+          <t>1654.70</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2053.14</t>
+          <t>2585.25</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2155.15</t>
+          <t>2646.73</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1646.75</t>
+          <t>2233.96</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1744.95</t>
+          <t>2250.01</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1317.42</t>
+          <t>1760.58</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1313.06</t>
+          <t>1753.73</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1201.27</t>
+          <t>1666.93</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1195.44</t>
+          <t>1660.03</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2058.86</t>
+          <t>2592.88</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2160.05</t>
+          <t>2662.20</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1684.69</t>
+          <t>2244.63</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1751.06</t>
+          <t>2258.75</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1322.12</t>
+          <t>1765.70</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1317.84</t>
+          <t>1758.88</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1206.93</t>
+          <t>1672.74</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1201.28</t>
+          <t>1665.87</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2069.30</t>
+          <t>2606.79</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2170.02</t>
+          <t>2675.67</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1696.59</t>
+          <t>2261.06</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1761.79</t>
+          <t>2273.95</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1331.78</t>
+          <t>1777.64</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1327.59</t>
+          <t>1770.86</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1218.03</t>
+          <t>1685.17</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1212.49</t>
+          <t>1678.35</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2148.98</t>
+          <t>2696.64</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2252.89</t>
+          <t>2767.41</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1742.06</t>
+          <t>2342.73</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1840.78</t>
+          <t>2366.70</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1398.36</t>
+          <t>1862.13</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1394.75</t>
+          <t>1855.29</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1293.34</t>
+          <t>1767.46</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1289.43</t>
+          <t>1760.62</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2565.59</t>
+          <t>3210.48</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>2650.19</t>
+          <t>3252.68</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2091.22</t>
+          <t>2810.06</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2232.85</t>
+          <t>2868.20</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1794.83</t>
+          <t>2240.13</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1780.20</t>
+          <t>2224.49</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1742.36</t>
+          <t>2264.95</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1738.67</t>
+          <t>2262.81</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1741.77</t>
+          <t>2164.78</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1771.22</t>
+          <t>2224.35</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>618.25</t>
+          <t>1283.32</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1511.53</t>
+          <t>1936.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1162.69</t>
+          <t>1546.12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1159.43</t>
+          <t>1541.58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1112.61</t>
+          <t>1470.33</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1162.45</t>
+          <t>1508.45</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2084.73</t>
+          <t>2566.60</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2053.61</t>
+          <t>2632.51</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1725.03</t>
+          <t>2229.53</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1693.52</t>
+          <t>2207.73</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1275.46</t>
+          <t>1688.42</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1269.98</t>
+          <t>1684.45</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1229.22</t>
+          <t>1616.87</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1230.70</t>
+          <t>1622.63</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2048.91</t>
+          <t>2548.14</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2019.10</t>
+          <t>2607.43</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1648.76</t>
+          <t>2190.69</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1666.32</t>
+          <t>2213.30</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1248.45</t>
+          <t>1664.39</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1243.01</t>
+          <t>1659.85</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1203.68</t>
+          <t>1591.36</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1200.24</t>
+          <t>1589.80</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2045.94</t>
+          <t>2558.06</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2015.76</t>
+          <t>2610.93</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1645.34</t>
+          <t>2210.15</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1667.08</t>
+          <t>2234.17</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1246.97</t>
+          <t>1668.34</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1241.58</t>
+          <t>1662.14</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1202.75</t>
+          <t>1591.89</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1198.12</t>
+          <t>1589.31</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2047.50</t>
+          <t>2568.46</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2016.98</t>
+          <t>2619.26</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1648.78</t>
+          <t>2227.95</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1670.92</t>
+          <t>2252.07</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1249.18</t>
+          <t>1672.09</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1243.88</t>
+          <t>1666.00</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1205.27</t>
+          <t>1598.91</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1200.38</t>
+          <t>1597.33</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2049.68</t>
+          <t>2579.63</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2018.77</t>
+          <t>2634.81</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1653.20</t>
+          <t>2244.73</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1674.81</t>
+          <t>2264.91</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1255.81</t>
+          <t>1676.61</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1250.50</t>
+          <t>1675.59</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1208.13</t>
+          <t>1605.99</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1203.16</t>
+          <t>1601.73</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2052.54</t>
+          <t>2590.91</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2021.07</t>
+          <t>2654.59</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1695.80</t>
+          <t>2261.46</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1679.14</t>
+          <t>2277.33</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1259.17</t>
+          <t>1689.16</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1253.91</t>
+          <t>1684.55</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1211.68</t>
+          <t>1612.55</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1206.56</t>
+          <t>1606.92</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2061.42</t>
+          <t>2607.48</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2028.98</t>
+          <t>2671.88</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1707.97</t>
+          <t>2280.92</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1689.46</t>
+          <t>2297.09</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1268.36</t>
+          <t>1704.43</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1263.02</t>
+          <t>1700.77</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1221.17</t>
+          <t>1624.31</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1216.08</t>
+          <t>1618.78</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2141.44</t>
+          <t>2710.73</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2094.84</t>
+          <t>2765.49</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>1753.55</t>
+          <t>2371.86</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1773.43</t>
+          <t>2395.16</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1337.53</t>
+          <t>1800.17</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1331.84</t>
+          <t>1793.02</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1296.63</t>
+          <t>1713.57</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1291.56</t>
+          <t>1707.56</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2530.56</t>
+          <t>3089.52</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2528.83</t>
+          <t>3122.22</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2146.56</t>
+          <t>2720.66</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2098.09</t>
+          <t>2886.75</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1719.46</t>
+          <t>2208.47</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1705.36</t>
+          <t>2190.56</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1771.93</t>
+          <t>2254.94</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1771.58</t>
+          <t>2255.37</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1813.21</t>
+          <t>2345.49</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1824.60</t>
+          <t>2415.51</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>745.40</t>
+          <t>1168.51</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1582.22</t>
+          <t>2114.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1284.57</t>
+          <t>1707.24</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1281.49</t>
+          <t>1701.59</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1272.02</t>
+          <t>1626.37</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1318.89</t>
+          <t>1630.71</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2125.97</t>
+          <t>2724.36</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2051.22</t>
+          <t>2831.86</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1847.02</t>
+          <t>2362.22</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1719.59</t>
+          <t>2359.46</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1366.96</t>
+          <t>1854.20</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1362.49</t>
+          <t>1846.83</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1343.77</t>
+          <t>1760.49</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1363.72</t>
+          <t>1756.66</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2089.67</t>
+          <t>2707.95</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2017.63</t>
+          <t>2810.18</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1773.89</t>
+          <t>2313.35</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1694.23</t>
+          <t>2363.28</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1341.19</t>
+          <t>1836.18</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1336.65</t>
+          <t>1828.89</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1315.30</t>
+          <t>1742.40</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1318.53</t>
+          <t>1736.15</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2086.51</t>
+          <t>2715.79</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2018.30</t>
+          <t>2818.14</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1777.16</t>
+          <t>2323.41</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1697.56</t>
+          <t>2374.78</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1341.19</t>
+          <t>1841.89</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1336.66</t>
+          <t>1834.64</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1313.64</t>
+          <t>1746.40</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1312.78</t>
+          <t>1739.57</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2087.75</t>
+          <t>2734.62</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2023.25</t>
+          <t>2828.32</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1786.31</t>
+          <t>2338.23</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1704.27</t>
+          <t>2387.34</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1345.05</t>
+          <t>1849.88</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1340.53</t>
+          <t>1842.66</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1316.98</t>
+          <t>1754.50</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1314.89</t>
+          <t>1747.53</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2089.61</t>
+          <t>2751.45</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2028.42</t>
+          <t>2837.79</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1795.77</t>
+          <t>2349.08</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1710.81</t>
+          <t>2398.75</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1352.92</t>
+          <t>1857.43</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1348.43</t>
+          <t>1850.23</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1321.13</t>
+          <t>1762.18</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1318.62</t>
+          <t>1755.20</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2092.31</t>
+          <t>2767.47</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2033.94</t>
+          <t>2856.79</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1792.20</t>
+          <t>2362.56</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1717.50</t>
+          <t>2409.97</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1357.71</t>
+          <t>1865.87</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1353.26</t>
+          <t>1858.44</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1325.48</t>
+          <t>1770.16</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1322.70</t>
+          <t>1763.18</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2101.24</t>
+          <t>2789.53</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2045.76</t>
+          <t>2873.35</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1789.83</t>
+          <t>2384.59</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1730.11</t>
+          <t>2427.90</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1368.72</t>
+          <t>1882.64</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1364.30</t>
+          <t>1875.24</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1329.42</t>
+          <t>1775.72</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1331.92</t>
+          <t>1768.77</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2185.80</t>
+          <t>2894.21</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2119.17</t>
+          <t>2962.71</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>1825.14</t>
+          <t>2484.12</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1802.83</t>
+          <t>2527.31</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1432.16</t>
+          <t>1980.81</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1427.63</t>
+          <t>1973.38</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1408.60</t>
+          <t>1870.48</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1403.16</t>
+          <t>1862.92</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2588.98</t>
+          <t>3517.84</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2463.51</t>
+          <t>3556.20</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2249.27</t>
+          <t>3086.23</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2055.78</t>
+          <t>3072.18</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1682.74</t>
+          <t>2408.42</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1667.97</t>
+          <t>2390.60</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1880.68</t>
+          <t>2430.59</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1892.96</t>
+          <t>2428.89</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2261.51</t>
+          <t>2444.69</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2216.31</t>
+          <t>2461.31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>909.14</t>
+          <t>1279.94</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1920.02</t>
+          <t>2144.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1543.53</t>
+          <t>1758.33</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1541.00</t>
+          <t>1752.61</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1518.27</t>
+          <t>1695.44</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1511.05</t>
+          <t>1699.62</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2661.08</t>
+          <t>2874.93</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2609.78</t>
+          <t>2854.60</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2222.33</t>
+          <t>2483.04</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2165.31</t>
+          <t>2397.45</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1699.04</t>
+          <t>1891.05</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1686.04</t>
+          <t>1883.18</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1662.97</t>
+          <t>1845.15</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1660.94</t>
+          <t>1840.43</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2627.16</t>
+          <t>2847.64</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2639.60</t>
+          <t>2832.57</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2166.76</t>
+          <t>2446.69</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2156.46</t>
+          <t>2391.71</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1712.22</t>
+          <t>1878.29</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1702.42</t>
+          <t>1870.50</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1645.09</t>
+          <t>1823.11</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1637.95</t>
+          <t>1816.83</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2632.70</t>
+          <t>2856.50</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2648.30</t>
+          <t>2837.55</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2176.61</t>
+          <t>2454.75</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2172.45</t>
+          <t>2405.58</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1716.83</t>
+          <t>1889.62</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1712.98</t>
+          <t>1881.83</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1653.49</t>
+          <t>1828.74</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1645.60</t>
+          <t>1821.64</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2643.21</t>
+          <t>2867.41</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2651.61</t>
+          <t>2844.77</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2193.46</t>
+          <t>2476.32</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2189.36</t>
+          <t>2416.75</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1718.63</t>
+          <t>1896.52</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1715.01</t>
+          <t>1888.99</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1665.36</t>
+          <t>1836.65</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1656.59</t>
+          <t>1829.39</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2658.82</t>
+          <t>2875.64</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2645.60</t>
+          <t>2855.95</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2212.24</t>
+          <t>2490.74</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2203.24</t>
+          <t>2426.82</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1717.39</t>
+          <t>1902.23</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1714.63</t>
+          <t>1894.74</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1685.66</t>
+          <t>1844.12</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1667.51</t>
+          <t>1836.82</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2667.84</t>
+          <t>2884.60</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2650.43</t>
+          <t>2877.48</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2252.66</t>
+          <t>2505.69</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2214.33</t>
+          <t>2436.82</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1710.80</t>
+          <t>1908.37</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1718.59</t>
+          <t>1900.95</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1695.92</t>
+          <t>1851.87</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1691.35</t>
+          <t>1844.58</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2684.65</t>
+          <t>2900.44</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2647.25</t>
+          <t>2895.44</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2277.51</t>
+          <t>2523.02</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2235.09</t>
+          <t>2453.32</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1715.37</t>
+          <t>1921.44</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1718.62</t>
+          <t>1914.10</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1700.41</t>
+          <t>1866.21</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1705.84</t>
+          <t>1858.96</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2779.13</t>
+          <t>2990.65</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2726.64</t>
+          <t>2991.29</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2348.12</t>
+          <t>2612.19</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2328.45</t>
+          <t>2549.84</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1794.24</t>
+          <t>2011.83</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1790.05</t>
+          <t>2004.46</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1789.31</t>
+          <t>1957.61</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1784.09</t>
+          <t>1950.84</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3536.28</t>
+          <t>3693.52</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3374.28</t>
+          <t>3600.94</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3083.86</t>
+          <t>3288.63</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2916.65</t>
+          <t>3139.68</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2269.73</t>
+          <t>2436.18</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2262.44</t>
+          <t>2421.53</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2377.19</t>
+          <t>2588.47</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2374.73</t>
+          <t>2587.78</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2376.18</t>
+          <t>2497.83</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2326.24</t>
+          <t>2471.24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>704.84</t>
+          <t>896.92</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025.55</t>
+          <t>2167.24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1652.52</t>
+          <t>1778.72</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1647.47</t>
+          <t>1773.20</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1617.12</t>
+          <t>1741.03</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1710.24</t>
+          <t>1735.31</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2818.05</t>
+          <t>2910.90</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2490.95</t>
+          <t>2889.65</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2234.22</t>
+          <t>2485.85</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2257.05</t>
+          <t>2436.92</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1794.97</t>
+          <t>1940.75</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1788.23</t>
+          <t>1932.42</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1753.33</t>
+          <t>1893.91</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1733.19</t>
+          <t>1911.81</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2808.05</t>
+          <t>2891.44</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2494.36</t>
+          <t>2888.83</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2262.00</t>
+          <t>2457.79</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1938.12</t>
+          <t>2422.00</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1769.21</t>
+          <t>1937.61</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1762.51</t>
+          <t>1931.35</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1891.14</t>
+          <t>1867.84</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1884.37</t>
+          <t>1866.95</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2814.15</t>
+          <t>2906.08</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2511.99</t>
+          <t>2907.51</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2318.47</t>
+          <t>2478.51</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2096.14</t>
+          <t>2426.25</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1536.90</t>
+          <t>1940.90</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1530.93</t>
+          <t>1933.48</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1861.54</t>
+          <t>1869.75</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1854.73</t>
+          <t>1863.60</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>2830.30</t>
+          <t>2928.94</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2523.52</t>
+          <t>2899.24</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2330.16</t>
+          <t>2489.61</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2111.17</t>
+          <t>2435.01</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1658.92</t>
+          <t>1923.87</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1525.58</t>
+          <t>1917.14</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1868.66</t>
+          <t>1873.06</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1861.83</t>
+          <t>1866.78</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2847.40</t>
+          <t>2946.09</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2533.37</t>
+          <t>2903.52</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2340.67</t>
+          <t>2501.92</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2119.97</t>
+          <t>2444.84</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1668.14</t>
+          <t>1926.25</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1662.23</t>
+          <t>1921.47</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1875.19</t>
+          <t>1876.34</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1868.37</t>
+          <t>1871.19</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2859.05</t>
+          <t>2961.83</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2543.76</t>
+          <t>2917.48</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2358.19</t>
+          <t>2514.17</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2131.02</t>
+          <t>2454.79</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1676.32</t>
+          <t>1931.87</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1669.85</t>
+          <t>1924.78</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1881.83</t>
+          <t>1881.81</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1875.04</t>
+          <t>1875.05</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>2873.39</t>
+          <t>2973.50</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2560.05</t>
+          <t>2942.71</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2379.15</t>
+          <t>2529.27</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2148.59</t>
+          <t>2465.53</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1691.41</t>
+          <t>1945.41</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1684.97</t>
+          <t>1938.32</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1893.91</t>
+          <t>1894.44</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1887.17</t>
+          <t>1887.49</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>2982.10</t>
+          <t>3070.28</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2660.68</t>
+          <t>3037.29</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2451.01</t>
+          <t>2617.92</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2252.26</t>
+          <t>2574.55</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1781.76</t>
+          <t>2037.34</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1775.64</t>
+          <t>2033.64</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1967.17</t>
+          <t>1990.03</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1960.18</t>
+          <t>1982.04</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3780.78</t>
+          <t>3822.64</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3257.82</t>
+          <t>3764.81</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3277.43</t>
+          <t>3367.07</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2540.24</t>
+          <t>3103.63</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2017.53</t>
+          <t>2486.41</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2001.62</t>
+          <t>2469.83</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2460.26</t>
+          <t>2642.87</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2462.55</t>
+          <t>2643.94</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2253.28</t>
+          <t>2434.23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1961.09</t>
+          <t>2419.72</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>416.26</t>
+          <t>627.06</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1708.94</t>
+          <t>2106.51</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1497.23</t>
+          <t>1719.56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1491.66</t>
+          <t>1713.42</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1601.07</t>
+          <t>1727.42</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1600.84</t>
+          <t>1723.99</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2390.43</t>
+          <t>2913.25</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2331.05</t>
+          <t>2856.34</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2198.16</t>
+          <t>2459.81</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1560.98</t>
+          <t>2391.06</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1628.49</t>
+          <t>1922.05</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1621.28</t>
+          <t>1914.66</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1866.59</t>
+          <t>1883.95</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1859.69</t>
+          <t>1877.87</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2367.69</t>
+          <t>2898.57</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2324.85</t>
+          <t>2831.83</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2125.55</t>
+          <t>2433.54</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1503.09</t>
+          <t>2373.14</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1610.55</t>
+          <t>1909.14</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1603.39</t>
+          <t>1901.67</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1855.05</t>
+          <t>1866.13</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1847.81</t>
+          <t>1860.63</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2583.03</t>
+          <t>2894.48</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2330.85</t>
+          <t>2834.60</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2120.80</t>
+          <t>2439.59</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>1515.05</t>
+          <t>2378.42</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1611.25</t>
+          <t>1914.88</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1604.12</t>
+          <t>1907.60</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1872.28</t>
+          <t>1839.09</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1864.92</t>
+          <t>1856.33</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2736.06</t>
+          <t>2839.31</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2335.73</t>
+          <t>2839.28</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2299.32</t>
+          <t>2449.03</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1963.48</t>
+          <t>2386.98</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1541.10</t>
+          <t>1921.63</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1535.33</t>
+          <t>1914.39</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1844.88</t>
+          <t>1871.40</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1837.94</t>
+          <t>1864.34</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2773.79</t>
+          <t>2842.28</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2339.89</t>
+          <t>2844.44</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2333.55</t>
+          <t>2458.38</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>1964.66</t>
+          <t>2392.84</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1546.93</t>
+          <t>1927.79</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1541.02</t>
+          <t>1920.43</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1870.12</t>
+          <t>1876.80</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1863.29</t>
+          <t>1869.76</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2781.30</t>
+          <t>2849.16</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2344.55</t>
+          <t>2859.66</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2188.90</t>
+          <t>2468.16</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1970.73</t>
+          <t>2399.52</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1550.93</t>
+          <t>1933.76</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1545.05</t>
+          <t>1926.52</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1877.28</t>
+          <t>1882.86</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1870.41</t>
+          <t>1875.86</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2708.36</t>
+          <t>2861.49</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2356.61</t>
+          <t>2871.62</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2010.92</t>
+          <t>2482.60</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>1984.84</t>
+          <t>2417.39</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1562.31</t>
+          <t>1945.23</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1556.58</t>
+          <t>1936.42</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1889.79</t>
+          <t>1894.27</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1882.92</t>
+          <t>1887.21</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2502.97</t>
+          <t>2954.85</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2455.63</t>
+          <t>2960.17</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2002.64</t>
+          <t>2569.22</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2088.34</t>
+          <t>2514.65</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1649.93</t>
+          <t>2017.22</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1644.90</t>
+          <t>2008.05</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1962.08</t>
+          <t>1977.48</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1954.09</t>
+          <t>1970.43</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3176.24</t>
+          <t>3696.70</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>2600.16</t>
+          <t>3634.56</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>2667.52</t>
+          <t>3251.64</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2008.18</t>
+          <t>3056.21</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1618.73</t>
+          <t>2437.28</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1602.28</t>
+          <t>2419.62</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2469.26</t>
+          <t>2581.72</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2466.38</t>
+          <t>2583.14</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>288.28</t>
+          <t>2164.78</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>122.53</t>
+          <t>2224.35</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>36.57</t>
+          <t>406.43</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>121.89</t>
+          <t>1936.18</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>133.26</t>
+          <t>1546.12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>133.06</t>
+          <t>1541.58</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>845.98</t>
+          <t>1470.33</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>819.62</t>
+          <t>1508.45</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1715.12</t>
+          <t>2566.60</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>129.18</t>
+          <t>2632.51</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1356.04</t>
+          <t>2229.53</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>128.67</t>
+          <t>2207.73</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>225.42</t>
+          <t>1688.42</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>226.01</t>
+          <t>1684.45</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1202.23</t>
+          <t>1616.87</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1206.55</t>
+          <t>1622.63</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1892.87</t>
+          <t>2548.14</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>290.29</t>
+          <t>2607.43</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1343.87</t>
+          <t>2190.69</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>131.08</t>
+          <t>2213.30</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>319.06</t>
+          <t>1664.39</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>319.15</t>
+          <t>1659.85</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1186.07</t>
+          <t>1591.36</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1181.28</t>
+          <t>1589.80</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1818.93</t>
+          <t>2558.06</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>267.06</t>
+          <t>2610.93</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1241.43</t>
+          <t>2210.15</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>131.13</t>
+          <t>2231.99</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>370.17</t>
+          <t>1668.34</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>370.06</t>
+          <t>1662.14</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1190.03</t>
+          <t>1591.89</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1184.39</t>
+          <t>1589.31</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>1654.24</t>
+          <t>2568.46</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>130.75</t>
+          <t>2619.26</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1387.10</t>
+          <t>2223.17</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>130.28</t>
+          <t>2241.34</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>366.02</t>
+          <t>1672.09</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>365.93</t>
+          <t>1666.00</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1195.80</t>
+          <t>1598.91</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1189.98</t>
+          <t>1597.33</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>1455.40</t>
+          <t>2579.63</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>129.57</t>
+          <t>2634.81</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>873.89</t>
+          <t>2233.96</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>129.14</t>
+          <t>2250.01</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>351.52</t>
+          <t>1676.61</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>351.61</t>
+          <t>1675.59</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1201.27</t>
+          <t>1605.99</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1195.44</t>
+          <t>1601.73</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>1234.13</t>
+          <t>2590.91</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>128.21</t>
+          <t>2654.59</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>645.15</t>
+          <t>2244.63</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>127.86</t>
+          <t>2258.75</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>327.65</t>
+          <t>1689.16</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>328.44</t>
+          <t>1684.55</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1206.93</t>
+          <t>1612.55</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1201.28</t>
+          <t>1606.92</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>988.92</t>
+          <t>2606.79</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>126.44</t>
+          <t>2671.88</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>392.78</t>
+          <t>2261.06</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>126.25</t>
+          <t>2273.95</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>284.16</t>
+          <t>1704.43</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>286.90</t>
+          <t>1700.77</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1149.09</t>
+          <t>1624.31</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1088.41</t>
+          <t>1618.78</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>1485.12</t>
+          <t>2696.64</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>123.59</t>
+          <t>2765.49</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1266.56</t>
+          <t>2342.73</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>123.82</t>
+          <t>2366.70</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>206.14</t>
+          <t>1800.17</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>214.30</t>
+          <t>1793.02</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1100.25</t>
+          <t>1713.57</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1033.23</t>
+          <t>1707.56</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>1635.61</t>
+          <t>3089.52</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>344.17</t>
+          <t>3122.22</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>1429.73</t>
+          <t>2720.66</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>152.23</t>
+          <t>2868.20</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>298.43</t>
+          <t>2208.47</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>288.19</t>
+          <t>2190.56</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1299.08</t>
+          <t>2254.94</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1296.77</t>
+          <t>2255.37</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2376.18</t>
+          <t>2497.83</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2326.24</t>
+          <t>2471.24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>909.14</t>
+          <t>1283.32</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025.55</t>
+          <t>2167.24</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1652.52</t>
+          <t>1778.72</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1647.47</t>
+          <t>1773.20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1617.12</t>
+          <t>1758.09</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1710.24</t>
+          <t>1761.79</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2818.05</t>
+          <t>2932.49</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2609.78</t>
+          <t>2892.97</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2234.22</t>
+          <t>2488.56</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2257.05</t>
+          <t>2436.92</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1794.97</t>
+          <t>1940.75</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1788.23</t>
+          <t>1932.42</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1866.59</t>
+          <t>1930.61</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1859.69</t>
+          <t>1928.01</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2808.05</t>
+          <t>2926.41</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2639.60</t>
+          <t>2902.56</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2262.00</t>
+          <t>2461.52</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2156.46</t>
+          <t>2422.00</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1769.21</t>
+          <t>1937.61</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1762.51</t>
+          <t>1931.35</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1891.14</t>
+          <t>1909.66</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1884.37</t>
+          <t>1904.09</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2814.15</t>
+          <t>2934.79</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2648.30</t>
+          <t>2907.51</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2318.47</t>
+          <t>2478.51</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2172.45</t>
+          <t>2426.25</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1716.83</t>
+          <t>1940.90</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1712.98</t>
+          <t>1933.48</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1872.28</t>
+          <t>1872.03</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1864.92</t>
+          <t>1864.22</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>2830.30</t>
+          <t>2931.64</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2651.61</t>
+          <t>2900.37</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2330.16</t>
+          <t>2489.61</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2189.36</t>
+          <t>2435.01</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1718.63</t>
+          <t>1923.87</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1715.01</t>
+          <t>1917.14</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1868.66</t>
+          <t>1873.06</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1861.83</t>
+          <t>1866.78</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2847.40</t>
+          <t>2946.09</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2645.60</t>
+          <t>2904.38</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2340.67</t>
+          <t>2501.92</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2203.24</t>
+          <t>2444.84</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1717.39</t>
+          <t>1927.79</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1714.63</t>
+          <t>1921.47</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1875.19</t>
+          <t>1876.80</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1868.37</t>
+          <t>1871.19</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2859.05</t>
+          <t>2961.83</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2650.43</t>
+          <t>2917.48</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2358.19</t>
+          <t>2514.17</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2214.33</t>
+          <t>2454.79</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1710.80</t>
+          <t>1933.76</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1718.59</t>
+          <t>1926.52</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1881.83</t>
+          <t>1882.86</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1875.04</t>
+          <t>1875.86</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>2873.39</t>
+          <t>2973.50</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2647.25</t>
+          <t>2942.71</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2379.15</t>
+          <t>2529.27</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2235.09</t>
+          <t>2465.53</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1715.37</t>
+          <t>1945.41</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1718.62</t>
+          <t>1938.32</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1893.91</t>
+          <t>1894.44</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1887.17</t>
+          <t>1887.49</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>2982.10</t>
+          <t>3070.28</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2726.64</t>
+          <t>3037.29</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2451.01</t>
+          <t>2617.92</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2328.45</t>
+          <t>2574.55</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1794.24</t>
+          <t>2037.34</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1790.05</t>
+          <t>2033.64</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1967.17</t>
+          <t>1990.03</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1960.18</t>
+          <t>1982.04</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>3780.78</t>
+          <t>3859.53</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3374.28</t>
+          <t>3764.81</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3277.43</t>
+          <t>3371.90</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2916.65</t>
+          <t>3139.68</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2269.73</t>
+          <t>2486.41</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2262.44</t>
+          <t>2469.83</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2469.26</t>
+          <t>2642.87</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2466.38</t>
+          <t>2643.94</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_ElPasoTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_ElPasoTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2424.72</t>
+          <t>2513.60</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2333.48</t>
+          <t>2061.92</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>538.67</t>
+          <t>711.16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2041.17</t>
+          <t>1730.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1670.73</t>
+          <t>1375.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1665.28</t>
+          <t>1371.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1696.24</t>
+          <t>1785.20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1761.79</t>
+          <t>1788.83</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2893.35</t>
+          <t>2969.12</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2773.36</t>
+          <t>2480.03</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2488.56</t>
+          <t>2573.13</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2317.06</t>
+          <t>1996.46</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1847.19</t>
+          <t>1663.46</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1839.98</t>
+          <t>1653.47</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1930.61</t>
+          <t>1952.39</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1928.01</t>
+          <t>1959.96</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2873.26</t>
+          <t>2957.20</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2763.07</t>
+          <t>2460.04</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2407.86</t>
+          <t>2529.41</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2312.04</t>
+          <t>1987.23</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1835.93</t>
+          <t>1638.45</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1828.85</t>
+          <t>1630.98</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1909.66</t>
+          <t>1924.52</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1904.09</t>
+          <t>1921.80</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2865.47</t>
+          <t>2975.57</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2768.37</t>
+          <t>2463.40</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2414.07</t>
+          <t>2518.72</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2321.23</t>
+          <t>2066.96</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1840.27</t>
+          <t>1522.61</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1833.34</t>
+          <t>1516.65</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1864.97</t>
+          <t>1915.43</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1859.91</t>
+          <t>1908.79</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2822.31</t>
+          <t>2998.52</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2774.86</t>
+          <t>2466.48</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2422.59</t>
+          <t>2513.62</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2330.24</t>
+          <t>2062.60</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1844.19</t>
+          <t>1649.97</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1837.19</t>
+          <t>1639.31</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1869.47</t>
+          <t>1894.31</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1862.13</t>
+          <t>1898.34</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2823.82</t>
+          <t>3007.61</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2777.16</t>
+          <t>2471.83</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2430.27</t>
+          <t>2509.11</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>2335.00</t>
+          <t>2066.27</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1845.27</t>
+          <t>1647.05</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1838.35</t>
+          <t>1636.18</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1869.61</t>
+          <t>1892.76</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1863.55</t>
+          <t>1886.40</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2829.19</t>
+          <t>3013.58</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>2778.30</t>
+          <t>2463.64</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2439.27</t>
+          <t>2489.67</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2333.51</t>
+          <t>2028.02</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1845.89</t>
+          <t>1649.31</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1838.97</t>
+          <t>1638.23</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1873.96</t>
+          <t>1877.97</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1867.06</t>
+          <t>1875.75</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2840.34</t>
+          <t>3025.98</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>2790.81</t>
+          <t>2478.24</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2451.97</t>
+          <t>2494.03</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>2347.02</t>
+          <t>2045.64</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1853.10</t>
+          <t>1658.29</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1846.26</t>
+          <t>1647.04</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1884.34</t>
+          <t>1887.38</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1877.27</t>
+          <t>1880.69</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2934.10</t>
+          <t>3074.80</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>2878.92</t>
+          <t>2580.02</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2535.80</t>
+          <t>2557.38</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>2443.24</t>
+          <t>2135.24</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1943.56</t>
+          <t>1735.00</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1938.45</t>
+          <t>1723.09</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1971.33</t>
+          <t>1969.08</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1964.53</t>
+          <t>1963.18</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3669.72</t>
+          <t>3922.91</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>3537.76</t>
+          <t>3196.16</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3228.32</t>
+          <t>3270.20</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>2993.67</t>
+          <t>2595.63</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>2399.26</t>
+          <t>2053.28</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>2381.58</t>
+          <t>2034.26</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2540.96</t>
+          <t>2607.16</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2540.25</t>
+          <t>2600.37</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2458.03</t>
+          <t>2471.72</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2424.90</t>
+          <t>1914.76</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>587.40</t>
+          <t>529.07</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2106.92</t>
+          <t>1674.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1717.31</t>
+          <t>1641.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1710.87</t>
+          <t>1635.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1758.09</t>
+          <t>1747.03</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1661.82</t>
+          <t>1752.57</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2932.49</t>
+          <t>2926.56</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2869.24</t>
+          <t>2375.47</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2458.79</t>
+          <t>2488.88</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2380.42</t>
+          <t>2203.01</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1883.35</t>
+          <t>1796.56</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1875.43</t>
+          <t>1784.77</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1876.24</t>
+          <t>1912.82</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1868.16</t>
+          <t>1912.69</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2926.41</t>
+          <t>2914.35</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2849.52</t>
+          <t>2365.95</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2461.52</t>
+          <t>2462.56</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2378.15</t>
+          <t>1967.89</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1863.77</t>
+          <t>1776.98</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1860.81</t>
+          <t>1765.21</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1862.54</t>
+          <t>1890.86</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1853.91</t>
+          <t>1889.89</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2934.79</t>
+          <t>2934.33</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2851.05</t>
+          <t>2641.25</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2468.29</t>
+          <t>2473.26</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2381.98</t>
+          <t>1853.00</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1903.30</t>
+          <t>1772.38</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1893.88</t>
+          <t>1764.22</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1866.99</t>
+          <t>1893.44</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1856.36</t>
+          <t>1887.52</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2931.64</t>
+          <t>2947.42</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2860.18</t>
+          <t>2640.49</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2476.06</t>
+          <t>2483.70</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2404.21</t>
+          <t>2212.98</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1909.54</t>
+          <t>1752.65</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1893.67</t>
+          <t>1746.21</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1871.26</t>
+          <t>1897.14</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1862.82</t>
+          <t>1892.27</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2931.50</t>
+          <t>2957.61</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2880.75</t>
+          <t>2643.63</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2480.80</t>
+          <t>2494.95</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2407.60</t>
+          <t>2216.25</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1906.93</t>
+          <t>1752.81</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1899.17</t>
+          <t>1746.33</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1868.13</t>
+          <t>1899.67</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1861.65</t>
+          <t>1895.28</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2934.06</t>
+          <t>2950.48</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>2910.26</t>
+          <t>2650.02</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2488.83</t>
+          <t>2501.39</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2404.50</t>
+          <t>2223.90</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1911.79</t>
+          <t>1757.45</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>1904.06</t>
+          <t>1750.85</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1869.73</t>
+          <t>1904.79</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1864.19</t>
+          <t>1899.84</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>2941.32</t>
+          <t>2945.27</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>2931.98</t>
+          <t>2662.69</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2497.38</t>
+          <t>2517.08</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>2419.55</t>
+          <t>2237.71</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>1923.72</t>
+          <t>1768.92</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>1916.06</t>
+          <t>1762.38</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1877.01</t>
+          <t>1910.93</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1869.07</t>
+          <t>1902.17</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>3031.19</t>
+          <t>3049.94</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>3018.44</t>
+          <t>2752.48</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2565.72</t>
+          <t>2560.63</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>2519.48</t>
+          <t>2329.17</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>2012.22</t>
+          <t>1852.88</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>2004.56</t>
+          <t>1846.15</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1966.68</t>
+          <t>1948.43</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1959.18</t>
+          <t>1962.70</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>3859.53</t>
+          <t>3898.53</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>3763.14</t>
+          <t>2965.37</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>3308.15</t>
+          <t>3400.11</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>3089.01</t>
+          <t>2395.97</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2444.34</t>
+          <t>1884.67</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2426.09</t>
+          <t>1874.65</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2628.57</t>
+          <t>2659.21</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2625.48</t>
+          <t>2659.67</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2454.17</t>
+          <t>2445.57</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2414.03</t>
+          <t>2509.82</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>406.43</t>
+          <t>567.58</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2116.00</t>
+          <t>2192.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1711.65</t>
+          <t>1807.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1705.52</t>
+          <t>1801.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1721.60</t>
+          <t>1671.50</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1717.77</t>
+          <t>1667.44</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2906.66</t>
+          <t>2930.74</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2892.97</t>
+          <t>2911.20</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2445.67</t>
+          <t>2396.06</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2390.49</t>
+          <t>2422.28</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1902.10</t>
+          <t>1836.84</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1902.73</t>
+          <t>1825.75</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1906.53</t>
+          <t>1804.45</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1903.58</t>
+          <t>1799.40</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2890.43</t>
+          <t>2921.64</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2902.56</t>
+          <t>2933.95</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2433.99</t>
+          <t>2468.36</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2391.20</t>
+          <t>2443.48</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1894.24</t>
+          <t>1842.15</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1885.99</t>
+          <t>1833.59</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1879.89</t>
+          <t>1790.16</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1874.73</t>
+          <t>1783.59</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2902.94</t>
+          <t>2933.51</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2900.60</t>
+          <t>2979.68</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2436.17</t>
+          <t>2471.41</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2380.63</t>
+          <t>2438.14</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1897.76</t>
+          <t>1954.56</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1888.85</t>
+          <t>1945.09</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1872.03</t>
+          <t>1803.44</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1864.22</t>
+          <t>1786.84</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2907.91</t>
+          <t>2946.04</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2900.37</t>
+          <t>2894.85</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2456.80</t>
+          <t>2455.45</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2389.96</t>
+          <t>2446.39</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1902.49</t>
+          <t>1959.91</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1894.73</t>
+          <t>1952.40</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1817.46</t>
+          <t>1887.90</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1807.49</t>
+          <t>1850.18</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2915.55</t>
+          <t>2955.90</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2904.38</t>
+          <t>2905.56</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2484.86</t>
+          <t>2464.20</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2399.70</t>
+          <t>2454.12</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1907.79</t>
+          <t>1962.01</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1900.07</t>
+          <t>1954.47</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1833.30</t>
+          <t>1888.88</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1825.82</t>
+          <t>1881.24</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2924.33</t>
+          <t>2970.32</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2917.29</t>
+          <t>2912.60</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2493.01</t>
+          <t>2474.55</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2408.80</t>
+          <t>2462.33</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1913.91</t>
+          <t>1965.97</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1906.24</t>
+          <t>1958.06</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1839.52</t>
+          <t>1894.52</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1831.30</t>
+          <t>1887.31</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2939.04</t>
+          <t>2987.09</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2927.09</t>
+          <t>2926.12</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2509.84</t>
+          <t>2490.62</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>2425.02</t>
+          <t>2476.98</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1926.86</t>
+          <t>1976.30</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1919.29</t>
+          <t>1968.82</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1849.94</t>
+          <t>1905.88</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1841.82</t>
+          <t>1898.68</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>3032.18</t>
+          <t>3094.38</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>3011.44</t>
+          <t>3016.04</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2590.73</t>
+          <t>2572.53</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>2523.14</t>
+          <t>2571.68</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>2016.74</t>
+          <t>2061.98</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>2009.24</t>
+          <t>2054.59</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1945.11</t>
+          <t>1989.58</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1935.67</t>
+          <t>1982.40</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3815.87</t>
+          <t>3899.64</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3736.12</t>
+          <t>3729.32</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3371.90</t>
+          <t>3304.02</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>3117.65</t>
+          <t>3044.71</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2478.86</t>
+          <t>2449.20</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2460.66</t>
+          <t>2432.07</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2582.66</t>
+          <t>2551.67</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2582.93</t>
+          <t>2553.55</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2357.33</t>
+          <t>2293.26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2395.92</t>
+          <t>2328.56</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>661.57</t>
+          <t>345.01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2136.33</t>
+          <t>2024.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1698.25</t>
+          <t>1743.22</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1693.28</t>
+          <t>1737.51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1626.21</t>
+          <t>1538.50</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1646.86</t>
+          <t>1537.36</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2782.28</t>
+          <t>2768.01</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2861.50</t>
+          <t>2805.39</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2413.06</t>
+          <t>2336.95</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2420.44</t>
+          <t>2336.46</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1932.07</t>
+          <t>1889.01</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1918.57</t>
+          <t>1881.46</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1771.12</t>
+          <t>1722.62</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1806.09</t>
+          <t>1711.24</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2779.74</t>
+          <t>2781.42</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2842.26</t>
+          <t>2826.20</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2386.49</t>
+          <t>2318.72</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2404.43</t>
+          <t>2330.18</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1921.39</t>
+          <t>1872.18</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1914.96</t>
+          <t>1864.04</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1814.56</t>
+          <t>1726.36</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1802.79</t>
+          <t>1717.56</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2805.86</t>
+          <t>2804.28</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2844.94</t>
+          <t>2854.82</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2392.06</t>
+          <t>2351.04</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2409.74</t>
+          <t>2338.64</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1915.33</t>
+          <t>1875.60</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1916.33</t>
+          <t>1867.50</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1775.52</t>
+          <t>1807.07</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1812.22</t>
+          <t>1799.08</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2842.72</t>
+          <t>2827.67</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2867.57</t>
+          <t>2876.32</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2398.24</t>
+          <t>2361.64</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2413.06</t>
+          <t>2346.39</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1897.88</t>
+          <t>1881.28</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1890.63</t>
+          <t>1873.26</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1792.32</t>
+          <t>1812.13</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1784.58</t>
+          <t>1803.97</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2851.57</t>
+          <t>2850.34</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2887.07</t>
+          <t>2814.50</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2389.28</t>
+          <t>2373.44</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2419.42</t>
+          <t>2287.81</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1900.98</t>
+          <t>1885.73</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1893.75</t>
+          <t>1878.60</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1798.41</t>
+          <t>1817.63</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1794.27</t>
+          <t>1809.47</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2853.28</t>
+          <t>2868.66</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2905.05</t>
+          <t>2823.17</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2394.87</t>
+          <t>2385.22</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2425.44</t>
+          <t>2300.29</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1899.48</t>
+          <t>1891.48</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1897.86</t>
+          <t>1876.98</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1802.79</t>
+          <t>1823.52</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1795.95</t>
+          <t>1815.38</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2866.15</t>
+          <t>2887.77</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2910.64</t>
+          <t>2843.15</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2407.90</t>
+          <t>2372.75</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2445.75</t>
+          <t>2325.58</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1907.82</t>
+          <t>1782.26</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1900.77</t>
+          <t>1775.49</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1811.03</t>
+          <t>1835.09</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1804.21</t>
+          <t>1827.04</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2957.83</t>
+          <t>2938.62</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>3002.00</t>
+          <t>2949.07</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2492.37</t>
+          <t>2425.07</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2546.70</t>
+          <t>2431.66</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>2011.54</t>
+          <t>1877.34</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>2004.18</t>
+          <t>1869.27</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1910.50</t>
+          <t>1912.54</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1904.46</t>
+          <t>1905.42</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3691.06</t>
+          <t>3724.00</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3639.75</t>
+          <t>3684.93</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>3223.88</t>
+          <t>3109.41</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>3121.67</t>
+          <t>2978.08</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2457.62</t>
+          <t>2336.66</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2443.55</t>
+          <t>2318.46</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2517.54</t>
+          <t>2405.15</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2516.77</t>
+          <t>2403.72</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2324.66</t>
+          <t>2085.04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2402.72</t>
+          <t>2162.69</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1021.14</t>
+          <t>191.93</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2119.25</t>
+          <t>1856.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1712.83</t>
+          <t>1480.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1707.04</t>
+          <t>1476.53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1622.71</t>
+          <t>1405.26</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1618.99</t>
+          <t>1411.38</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2731.14</t>
+          <t>2521.92</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2809.94</t>
+          <t>2585.46</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2374.02</t>
+          <t>2149.66</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2365.58</t>
+          <t>2131.56</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1867.89</t>
+          <t>1639.26</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1860.34</t>
+          <t>1633.37</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1761.96</t>
+          <t>1555.56</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1755.34</t>
+          <t>1555.01</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2722.51</t>
+          <t>2512.33</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2805.68</t>
+          <t>2577.35</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2331.59</t>
+          <t>2104.93</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2353.85</t>
+          <t>2129.20</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1849.26</t>
+          <t>1629.23</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1841.76</t>
+          <t>1623.35</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1744.69</t>
+          <t>1545.77</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1737.37</t>
+          <t>1541.37</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2741.76</t>
+          <t>2524.52</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2818.66</t>
+          <t>2589.10</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2342.72</t>
+          <t>2113.65</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2366.23</t>
+          <t>2143.98</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1853.81</t>
+          <t>1637.62</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1846.38</t>
+          <t>1631.82</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1749.08</t>
+          <t>1554.41</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1741.67</t>
+          <t>1549.17</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2761.08</t>
+          <t>2536.90</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2827.15</t>
+          <t>2600.93</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2357.66</t>
+          <t>2128.46</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2382.18</t>
+          <t>2158.02</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1862.00</t>
+          <t>1646.72</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1854.59</t>
+          <t>1640.84</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1755.64</t>
+          <t>1563.58</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1748.26</t>
+          <t>1558.03</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2769.76</t>
+          <t>2547.90</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2835.03</t>
+          <t>2614.69</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2371.42</t>
+          <t>2142.50</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2392.27</t>
+          <t>2170.31</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1869.68</t>
+          <t>1654.74</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1862.30</t>
+          <t>1648.80</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1761.89</t>
+          <t>1571.60</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1754.53</t>
+          <t>1565.93</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2778.55</t>
+          <t>2558.61</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2852.69</t>
+          <t>2625.15</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2384.76</t>
+          <t>2156.03</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2402.23</t>
+          <t>2182.03</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1877.67</t>
+          <t>1662.84</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1870.32</t>
+          <t>1656.96</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1768.76</t>
+          <t>1579.58</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1761.40</t>
+          <t>1573.93</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2793.60</t>
+          <t>2575.25</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2867.51</t>
+          <t>2641.75</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2407.62</t>
+          <t>2174.42</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2420.13</t>
+          <t>2199.76</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1892.67</t>
+          <t>1677.26</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1885.36</t>
+          <t>1671.37</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1783.86</t>
+          <t>1593.74</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1776.53</t>
+          <t>1588.03</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2887.24</t>
+          <t>2677.47</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2954.21</t>
+          <t>2742.35</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2493.50</t>
+          <t>2258.82</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2521.37</t>
+          <t>2300.52</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1983.04</t>
+          <t>1767.21</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1975.68</t>
+          <t>1761.59</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1873.27</t>
+          <t>1682.18</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1865.92</t>
+          <t>1676.53</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3484.39</t>
+          <t>3316.88</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3537.11</t>
+          <t>3350.70</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>3058.36</t>
+          <t>2852.15</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>3063.57</t>
+          <t>2787.18</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2408.48</t>
+          <t>2198.70</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2390.48</t>
+          <t>2181.20</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2408.51</t>
+          <t>2208.01</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2406.34</t>
+          <t>2207.30</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2272.52</t>
+          <t>1891.96</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2337.27</t>
+          <t>1974.57</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>839.51</t>
+          <t>567.48</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2044.17</t>
+          <t>1696.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1667.06</t>
+          <t>1350.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1661.38</t>
+          <t>1346.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1572.49</t>
+          <t>1270.82</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1569.05</t>
+          <t>1289.03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2649.10</t>
+          <t>2266.02</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2722.60</t>
+          <t>2335.70</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2280.53</t>
+          <t>2025.09</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2284.84</t>
+          <t>1949.75</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1816.81</t>
+          <t>1500.57</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1809.41</t>
+          <t>1495.32</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1709.61</t>
+          <t>1415.41</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1703.41</t>
+          <t>1422.99</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2629.82</t>
+          <t>2228.06</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2699.27</t>
+          <t>2297.86</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2246.59</t>
+          <t>1940.53</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2267.54</t>
+          <t>1956.45</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1796.07</t>
+          <t>1486.41</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1788.77</t>
+          <t>1482.09</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1690.35</t>
+          <t>1404.49</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1683.28</t>
+          <t>1402.00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2634.81</t>
+          <t>2229.31</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2703.50</t>
+          <t>2298.46</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2250.08</t>
+          <t>1887.38</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2275.59</t>
+          <t>1959.41</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1798.63</t>
+          <t>1493.41</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1791.40</t>
+          <t>1488.20</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1693.47</t>
+          <t>1409.61</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1686.26</t>
+          <t>1405.17</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2642.59</t>
+          <t>2233.22</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2710.60</t>
+          <t>2301.63</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2261.73</t>
+          <t>1899.17</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2285.55</t>
+          <t>1961.10</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1803.82</t>
+          <t>1501.17</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1796.64</t>
+          <t>1495.94</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1699.06</t>
+          <t>1417.75</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1691.86</t>
+          <t>1412.91</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2650.08</t>
+          <t>2237.25</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2717.50</t>
+          <t>2308.00</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>2272.82</t>
+          <t>1910.92</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2294.80</t>
+          <t>1962.57</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1808.95</t>
+          <t>1508.18</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1801.80</t>
+          <t>1502.93</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1704.53</t>
+          <t>1425.07</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1697.36</t>
+          <t>1420.11</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2657.94</t>
+          <t>2221.81</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2733.95</t>
+          <t>2291.16</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>2283.84</t>
+          <t>1930.88</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2304.11</t>
+          <t>1963.77</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1814.66</t>
+          <t>1520.99</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1807.55</t>
+          <t>1515.72</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1710.53</t>
+          <t>1437.50</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1703.39</t>
+          <t>1432.48</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2672.04</t>
+          <t>2232.29</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2748.21</t>
+          <t>2301.49</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>2300.67</t>
+          <t>1946.90</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>2319.93</t>
+          <t>1977.43</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1827.27</t>
+          <t>1533.55</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1820.20</t>
+          <t>1528.25</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1723.31</t>
+          <t>1449.90</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1716.22</t>
+          <t>1444.78</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2763.13</t>
+          <t>2318.56</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2838.49</t>
+          <t>2387.09</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2388.19</t>
+          <t>2021.41</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2414.69</t>
+          <t>2065.35</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1913.13</t>
+          <t>1612.58</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1906.00</t>
+          <t>1607.24</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1808.35</t>
+          <t>1527.26</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1801.23</t>
+          <t>1522.04</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>3292.50</t>
+          <t>2829.15</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3345.44</t>
+          <t>2871.33</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2870.97</t>
+          <t>2556.49</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2892.93</t>
+          <t>2530.49</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2291.82</t>
+          <t>1944.82</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2274.96</t>
+          <t>1929.94</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>2321.39</t>
+          <t>1941.51</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>2318.99</t>
+          <t>1937.98</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2231.07</t>
+          <t>1793.29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2295.37</t>
+          <t>1850.04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1118.05</t>
+          <t>448.61</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2020.84</t>
+          <t>1623.21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1634.01</t>
+          <t>1264.06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1628.64</t>
+          <t>1262.32</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1541.43</t>
+          <t>1200.54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1543.68</t>
+          <t>1226.32</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2600.31</t>
+          <t>2093.56</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2670.89</t>
+          <t>2162.65</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2267.61</t>
+          <t>1894.89</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2254.69</t>
+          <t>1805.38</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1778.35</t>
+          <t>1374.51</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1771.44</t>
+          <t>1368.91</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1673.81</t>
+          <t>1323.61</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1670.37</t>
+          <t>1333.08</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2565.35</t>
+          <t>2069.99</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2630.88</t>
+          <t>2136.21</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2208.41</t>
+          <t>1763.98</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2224.57</t>
+          <t>1781.59</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1750.00</t>
+          <t>1342.99</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1742.99</t>
+          <t>1339.17</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1652.92</t>
+          <t>1302.18</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1646.27</t>
+          <t>1304.31</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2570.20</t>
+          <t>2067.29</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2634.25</t>
+          <t>2136.54</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2211.82</t>
+          <t>1760.55</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2231.99</t>
+          <t>1782.66</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1751.66</t>
+          <t>1343.40</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1744.73</t>
+          <t>1339.69</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1656.14</t>
+          <t>1303.06</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1649.24</t>
+          <t>1302.26</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2577.92</t>
+          <t>2068.73</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2640.57</t>
+          <t>2139.58</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2223.17</t>
+          <t>1763.19</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2241.34</t>
+          <t>1786.22</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1756.10</t>
+          <t>1346.60</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1749.21</t>
+          <t>1342.95</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1661.63</t>
+          <t>1306.76</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1654.70</t>
+          <t>1305.19</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2585.25</t>
+          <t>2071.11</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2646.73</t>
+          <t>2145.99</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>2233.96</t>
+          <t>1764.86</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2250.01</t>
+          <t>1789.68</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1760.58</t>
+          <t>1349.91</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1753.73</t>
+          <t>1346.30</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1666.93</t>
+          <t>1310.54</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1660.03</t>
+          <t>1308.79</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2592.88</t>
+          <t>2069.46</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2662.20</t>
+          <t>2149.96</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>2244.63</t>
+          <t>1772.72</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2258.75</t>
+          <t>1793.29</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1765.70</t>
+          <t>1353.77</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1758.88</t>
+          <t>1350.15</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1672.74</t>
+          <t>1314.49</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1665.87</t>
+          <t>1312.67</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2606.79</t>
+          <t>2073.59</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2675.67</t>
+          <t>2159.49</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>2261.06</t>
+          <t>1785.49</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2273.95</t>
+          <t>1801.32</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1777.64</t>
+          <t>1363.00</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1770.86</t>
+          <t>1359.29</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1685.17</t>
+          <t>1320.92</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1678.35</t>
+          <t>1320.67</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2696.64</t>
+          <t>2142.36</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2767.41</t>
+          <t>2236.85</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>2342.73</t>
+          <t>1857.41</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2366.70</t>
+          <t>1882.48</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1862.13</t>
+          <t>1435.05</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1855.29</t>
+          <t>1431.52</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1767.46</t>
+          <t>1367.41</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1760.62</t>
+          <t>1373.56</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>3210.48</t>
+          <t>2543.21</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3252.68</t>
+          <t>2566.78</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2810.06</t>
+          <t>2241.81</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2868.20</t>
+          <t>2283.61</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2240.13</t>
+          <t>1783.38</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2224.49</t>
+          <t>1772.51</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>2264.95</t>
+          <t>1807.71</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>2262.81</t>
+          <t>1809.40</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2164.78</t>
+          <t>1844.11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2224.35</t>
+          <t>1905.64</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1283.32</t>
+          <t>663.75</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1936.18</t>
+          <t>1629.61</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1546.12</t>
+          <t>1291.38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1541.58</t>
+          <t>1286.05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1470.33</t>
+          <t>1229.79</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1508.45</t>
+          <t>1246.69</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2566.60</t>
+          <t>2208.04</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2632.51</t>
+          <t>2204.58</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2229.53</t>
+          <t>1874.65</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2207.73</t>
+          <t>1815.47</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1688.42</t>
+          <t>1399.56</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1684.45</t>
+          <t>1392.93</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1616.87</t>
+          <t>1333.81</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1622.63</t>
+          <t>1334.74</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2548.14</t>
+          <t>2172.03</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2607.43</t>
+          <t>2173.59</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2190.69</t>
+          <t>1812.69</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2213.30</t>
+          <t>1790.70</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1664.39</t>
+          <t>1368.15</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1659.85</t>
+          <t>1364.63</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1591.36</t>
+          <t>1300.41</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1589.80</t>
+          <t>1296.03</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2558.06</t>
+          <t>2169.96</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2610.93</t>
+          <t>2172.41</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2210.15</t>
+          <t>1809.24</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2234.17</t>
+          <t>1790.13</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1668.34</t>
+          <t>1367.13</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1662.14</t>
+          <t>1363.68</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1591.89</t>
+          <t>1299.86</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1589.31</t>
+          <t>1294.53</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2568.46</t>
+          <t>2173.11</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2619.26</t>
+          <t>2177.26</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2227.95</t>
+          <t>1814.64</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2252.07</t>
+          <t>1789.67</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1672.09</t>
+          <t>1369.38</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1666.00</t>
+          <t>1365.97</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1598.91</t>
+          <t>1302.51</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1597.33</t>
+          <t>1296.92</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2579.63</t>
+          <t>2176.66</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2634.81</t>
+          <t>2182.32</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2244.73</t>
+          <t>1821.21</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2264.91</t>
+          <t>1792.95</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1676.61</t>
+          <t>1371.86</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1675.59</t>
+          <t>1368.46</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1605.99</t>
+          <t>1305.43</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1601.73</t>
+          <t>1299.76</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2590.91</t>
+          <t>2180.79</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2654.59</t>
+          <t>2187.48</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2261.46</t>
+          <t>1826.99</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2277.33</t>
+          <t>1796.48</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1689.16</t>
+          <t>1374.79</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1684.55</t>
+          <t>1371.38</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1612.55</t>
+          <t>1308.93</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1606.92</t>
+          <t>1303.24</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2607.48</t>
+          <t>2190.70</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2671.88</t>
+          <t>2196.24</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2280.92</t>
+          <t>1829.54</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2297.09</t>
+          <t>1804.66</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1704.43</t>
+          <t>1382.63</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1700.77</t>
+          <t>1379.21</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1624.31</t>
+          <t>1318.23</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1618.78</t>
+          <t>1312.46</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2710.73</t>
+          <t>2274.56</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2765.49</t>
+          <t>2270.51</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2371.86</t>
+          <t>1895.38</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2395.16</t>
+          <t>1880.73</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1800.17</t>
+          <t>1451.58</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1793.02</t>
+          <t>1448.62</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1713.57</t>
+          <t>1395.03</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1707.56</t>
+          <t>1389.14</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>3089.52</t>
+          <t>2680.07</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3122.22</t>
+          <t>2669.62</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2720.66</t>
+          <t>2306.67</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2886.75</t>
+          <t>2298.93</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>2208.47</t>
+          <t>1788.03</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2190.56</t>
+          <t>1773.02</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2254.94</t>
+          <t>1869.12</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2255.37</t>
+          <t>1872.68</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2345.49</t>
+          <t>1921.63</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2415.51</t>
+          <t>1874.45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1168.51</t>
+          <t>809.88</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2114.59</t>
+          <t>1615.48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1707.24</t>
+          <t>1266.63</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1701.59</t>
+          <t>1262.74</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1626.37</t>
+          <t>1243.69</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1630.71</t>
+          <t>1340.82</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2724.36</t>
+          <t>2283.37</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2831.86</t>
+          <t>2194.34</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2362.22</t>
+          <t>1917.69</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2359.46</t>
+          <t>1791.85</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1854.20</t>
+          <t>1377.38</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1846.83</t>
+          <t>1374.61</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1760.49</t>
+          <t>1352.09</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1756.66</t>
+          <t>1372.32</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2707.95</t>
+          <t>2233.62</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2810.18</t>
+          <t>2158.00</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2313.35</t>
+          <t>1851.78</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2363.28</t>
+          <t>1780.13</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1836.18</t>
+          <t>1350.43</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1828.89</t>
+          <t>1347.33</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1742.40</t>
+          <t>1325.37</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1736.15</t>
+          <t>1323.02</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2715.79</t>
+          <t>2232.29</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2818.14</t>
+          <t>2154.75</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2323.41</t>
+          <t>1848.91</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2374.78</t>
+          <t>1780.25</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1841.89</t>
+          <t>1351.22</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1834.64</t>
+          <t>1348.04</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1746.40</t>
+          <t>1325.64</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1739.57</t>
+          <t>1322.03</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2734.62</t>
+          <t>2235.31</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2828.32</t>
+          <t>2156.03</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2338.23</t>
+          <t>1855.65</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2387.34</t>
+          <t>1784.20</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1849.88</t>
+          <t>1355.27</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1842.66</t>
+          <t>1351.96</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1754.50</t>
+          <t>1329.45</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1747.53</t>
+          <t>1325.24</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2751.45</t>
+          <t>2238.89</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2837.79</t>
+          <t>2161.07</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2349.08</t>
+          <t>1863.25</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2398.75</t>
+          <t>1788.43</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1857.43</t>
+          <t>1359.13</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1850.23</t>
+          <t>1355.71</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1762.18</t>
+          <t>1333.46</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1755.20</t>
+          <t>1329.09</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2767.47</t>
+          <t>2243.03</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2856.79</t>
+          <t>2163.86</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2362.56</t>
+          <t>1871.18</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2409.97</t>
+          <t>1793.01</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1865.87</t>
+          <t>1363.03</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1858.44</t>
+          <t>1359.79</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1770.16</t>
+          <t>1337.91</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1763.18</t>
+          <t>1333.44</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2789.53</t>
+          <t>2252.42</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2873.35</t>
+          <t>2172.47</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2384.59</t>
+          <t>1884.05</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>2427.90</t>
+          <t>1802.37</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1882.64</t>
+          <t>1370.90</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1875.24</t>
+          <t>1368.92</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1775.72</t>
+          <t>1347.80</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1768.77</t>
+          <t>1343.26</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2894.21</t>
+          <t>2334.15</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2962.71</t>
+          <t>2246.49</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2484.12</t>
+          <t>1959.00</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2527.31</t>
+          <t>1879.51</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1980.81</t>
+          <t>1438.49</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1973.38</t>
+          <t>1436.68</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1870.48</t>
+          <t>1426.37</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1862.92</t>
+          <t>1421.86</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3517.84</t>
+          <t>2763.65</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>3556.20</t>
+          <t>2611.89</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>3086.23</t>
+          <t>2368.48</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>3072.18</t>
+          <t>2231.92</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>2408.42</t>
+          <t>1772.89</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2390.60</t>
+          <t>1761.76</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2430.59</t>
+          <t>1938.68</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2428.89</t>
+          <t>1942.21</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2444.69</t>
+          <t>2205.87</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2461.31</t>
+          <t>2179.87</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1279.94</t>
+          <t>987.10</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2144.01</t>
+          <t>1854.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1758.33</t>
+          <t>1443.13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1752.61</t>
+          <t>1441.17</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1695.44</t>
+          <t>1456.07</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1699.62</t>
+          <t>1474.55</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2874.93</t>
+          <t>2619.85</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2854.60</t>
+          <t>2574.44</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2483.04</t>
+          <t>2196.45</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2397.45</t>
+          <t>2055.38</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1891.05</t>
+          <t>1561.67</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1883.18</t>
+          <t>1550.41</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1845.15</t>
+          <t>1592.28</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1840.43</t>
+          <t>1593.30</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2847.64</t>
+          <t>2587.80</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2832.57</t>
+          <t>2554.79</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2446.69</t>
+          <t>2139.25</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2391.71</t>
+          <t>2044.34</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1878.29</t>
+          <t>1550.62</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1870.50</t>
+          <t>1541.88</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1823.11</t>
+          <t>1563.78</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1816.83</t>
+          <t>1565.45</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2856.50</t>
+          <t>2588.94</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2837.55</t>
+          <t>2561.27</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2454.75</t>
+          <t>2141.02</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2405.58</t>
+          <t>2061.30</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1889.62</t>
+          <t>1562.81</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1881.83</t>
+          <t>1551.57</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1828.74</t>
+          <t>1570.31</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1821.64</t>
+          <t>1562.79</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2867.41</t>
+          <t>2593.88</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2844.77</t>
+          <t>2569.18</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2476.32</t>
+          <t>2150.12</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2416.75</t>
+          <t>2073.55</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1896.52</t>
+          <t>1578.48</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1888.99</t>
+          <t>1571.14</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1836.65</t>
+          <t>1576.46</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1829.39</t>
+          <t>1570.55</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2875.64</t>
+          <t>2598.99</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2855.95</t>
+          <t>2580.30</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2490.74</t>
+          <t>2160.00</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2426.82</t>
+          <t>2085.32</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1902.23</t>
+          <t>1582.99</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1894.74</t>
+          <t>1575.34</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1844.12</t>
+          <t>1584.65</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1836.82</t>
+          <t>1578.07</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2884.60</t>
+          <t>2603.79</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2877.48</t>
+          <t>2587.94</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2505.69</t>
+          <t>2169.40</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2436.82</t>
+          <t>2097.46</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1908.37</t>
+          <t>1591.38</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1900.95</t>
+          <t>1584.02</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1851.87</t>
+          <t>1590.00</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1844.58</t>
+          <t>1584.53</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2900.44</t>
+          <t>2614.97</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2895.44</t>
+          <t>2602.18</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2523.02</t>
+          <t>2183.11</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2453.32</t>
+          <t>2113.16</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1921.44</t>
+          <t>1604.96</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1914.10</t>
+          <t>1597.97</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1866.21</t>
+          <t>1601.88</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1858.96</t>
+          <t>1595.78</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2990.65</t>
+          <t>2710.74</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2991.29</t>
+          <t>2698.30</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2612.19</t>
+          <t>2262.67</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2549.84</t>
+          <t>2209.38</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2011.83</t>
+          <t>1690.54</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2004.46</t>
+          <t>1684.88</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1957.61</t>
+          <t>1686.50</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1950.84</t>
+          <t>1681.42</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3693.52</t>
+          <t>3430.66</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3600.94</t>
+          <t>3437.60</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3288.63</t>
+          <t>2909.93</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3139.68</t>
+          <t>2741.79</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2436.18</t>
+          <t>2145.92</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2421.53</t>
+          <t>2128.05</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2588.47</t>
+          <t>2262.38</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2587.78</t>
+          <t>2267.14</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2497.83</t>
+          <t>2410.31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2471.24</t>
+          <t>2233.46</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>896.92</t>
+          <t>756.34</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2167.24</t>
+          <t>1896.08</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1778.72</t>
+          <t>1503.31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1773.20</t>
+          <t>1499.45</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1741.03</t>
+          <t>1665.51</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1735.31</t>
+          <t>1653.25</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2910.90</t>
+          <t>2840.41</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2889.65</t>
+          <t>2692.12</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2485.85</t>
+          <t>2366.72</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2436.92</t>
+          <t>2134.54</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1940.75</t>
+          <t>1664.70</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1932.42</t>
+          <t>1657.63</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1893.91</t>
+          <t>1806.98</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1911.81</t>
+          <t>1797.52</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2891.44</t>
+          <t>2834.36</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2888.83</t>
+          <t>2695.67</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2457.79</t>
+          <t>2365.90</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2422.00</t>
+          <t>2155.90</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1937.61</t>
+          <t>1674.57</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1931.35</t>
+          <t>1663.00</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1867.84</t>
+          <t>1808.75</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1866.95</t>
+          <t>1802.37</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2906.08</t>
+          <t>2817.41</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2907.51</t>
+          <t>2729.65</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2478.51</t>
+          <t>2392.47</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2426.25</t>
+          <t>2184.84</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1940.90</t>
+          <t>1729.58</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1933.48</t>
+          <t>1716.62</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1869.75</t>
+          <t>1817.74</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1863.60</t>
+          <t>1809.38</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>2928.94</t>
+          <t>2827.31</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2899.24</t>
+          <t>2760.91</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2489.61</t>
+          <t>2414.88</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2435.01</t>
+          <t>2221.07</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1923.87</t>
+          <t>1752.82</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1917.14</t>
+          <t>1743.16</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1873.06</t>
+          <t>1826.51</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1866.78</t>
+          <t>1818.00</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2946.09</t>
+          <t>2825.73</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2903.52</t>
+          <t>2786.84</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2501.92</t>
+          <t>2431.42</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2444.84</t>
+          <t>2250.17</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1926.25</t>
+          <t>1749.78</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1921.47</t>
+          <t>1746.10</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1876.34</t>
+          <t>1836.51</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1871.19</t>
+          <t>1828.32</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2961.83</t>
+          <t>2834.93</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2917.48</t>
+          <t>2797.11</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2514.17</t>
+          <t>2448.67</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2454.79</t>
+          <t>2293.25</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1931.87</t>
+          <t>1756.31</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1924.78</t>
+          <t>1749.15</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1881.81</t>
+          <t>1836.78</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1875.05</t>
+          <t>1836.88</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>2973.50</t>
+          <t>2847.29</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2942.71</t>
+          <t>2817.72</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2529.27</t>
+          <t>2475.33</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2465.53</t>
+          <t>2305.67</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1945.41</t>
+          <t>1769.81</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1938.32</t>
+          <t>1762.44</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1894.44</t>
+          <t>1834.86</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1887.49</t>
+          <t>1843.08</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3070.28</t>
+          <t>2942.02</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3037.29</t>
+          <t>2917.41</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2617.92</t>
+          <t>2565.58</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2574.55</t>
+          <t>2395.85</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2037.34</t>
+          <t>1856.93</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2033.64</t>
+          <t>1849.86</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1990.03</t>
+          <t>1899.51</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1982.04</t>
+          <t>1917.40</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3822.64</t>
+          <t>3730.40</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3764.81</t>
+          <t>3696.80</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3367.07</t>
+          <t>3323.77</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3103.63</t>
+          <t>2914.30</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2486.41</t>
+          <t>2328.71</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2469.83</t>
+          <t>2306.32</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2642.87</t>
+          <t>2550.42</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2643.94</t>
+          <t>2554.70</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2434.23</t>
+          <t>2530.83</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2419.72</t>
+          <t>2238.07</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>627.06</t>
+          <t>492.08</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2106.51</t>
+          <t>1939.35</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1719.56</t>
+          <t>1583.47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1713.42</t>
+          <t>1580.37</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1727.42</t>
+          <t>1800.97</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1723.99</t>
+          <t>1806.03</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2913.25</t>
+          <t>2972.85</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2856.34</t>
+          <t>2600.91</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2459.81</t>
+          <t>2539.33</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2391.06</t>
+          <t>2163.59</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1922.05</t>
+          <t>1714.45</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1914.66</t>
+          <t>1711.24</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1883.95</t>
+          <t>1960.14</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1877.87</t>
+          <t>1955.92</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2898.57</t>
+          <t>2934.28</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2831.83</t>
+          <t>2534.19</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2433.54</t>
+          <t>2495.53</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2373.14</t>
+          <t>2094.20</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1909.14</t>
+          <t>1685.11</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1901.67</t>
+          <t>1680.24</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1866.13</t>
+          <t>1934.16</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1860.63</t>
+          <t>1930.07</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2894.48</t>
+          <t>2950.30</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2834.60</t>
+          <t>2889.00</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2439.59</t>
+          <t>2500.10</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2378.42</t>
+          <t>2113.91</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1914.88</t>
+          <t>1897.43</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1907.60</t>
+          <t>1893.22</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1839.09</t>
+          <t>1916.69</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1856.33</t>
+          <t>1910.23</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2839.31</t>
+          <t>2974.60</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2839.28</t>
+          <t>2890.57</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2449.03</t>
+          <t>2538.44</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2386.98</t>
+          <t>2424.90</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1921.63</t>
+          <t>1896.67</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1914.39</t>
+          <t>1890.25</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1871.40</t>
+          <t>1909.17</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1864.34</t>
+          <t>1901.52</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2842.28</t>
+          <t>2941.12</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2844.44</t>
+          <t>2898.65</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2458.38</t>
+          <t>2547.02</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2392.84</t>
+          <t>2429.12</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1927.79</t>
+          <t>1899.14</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1920.43</t>
+          <t>1892.48</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1876.80</t>
+          <t>1910.87</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1869.76</t>
+          <t>1904.73</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2849.16</t>
+          <t>2941.93</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2859.66</t>
+          <t>2905.94</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2468.16</t>
+          <t>2558.12</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2399.52</t>
+          <t>2437.65</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1933.76</t>
+          <t>1904.24</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1926.52</t>
+          <t>1897.47</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1882.86</t>
+          <t>1932.50</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1875.86</t>
+          <t>1920.59</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2861.49</t>
+          <t>2954.76</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2871.62</t>
+          <t>2919.84</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2482.60</t>
+          <t>2569.47</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2417.39</t>
+          <t>2453.54</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1945.23</t>
+          <t>1917.19</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1936.42</t>
+          <t>1910.43</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1894.27</t>
+          <t>1946.74</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1887.21</t>
+          <t>1939.86</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2954.85</t>
+          <t>3031.33</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2960.17</t>
+          <t>3020.16</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2569.22</t>
+          <t>2635.32</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2514.65</t>
+          <t>2558.26</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>2017.22</t>
+          <t>2011.83</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>2008.05</t>
+          <t>2005.34</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1977.48</t>
+          <t>2025.32</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1970.43</t>
+          <t>2018.58</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3696.70</t>
+          <t>3745.80</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3634.56</t>
+          <t>3651.42</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3251.64</t>
+          <t>3298.42</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>3056.21</t>
+          <t>3013.36</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2437.28</t>
+          <t>2420.47</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2419.62</t>
+          <t>2403.99</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2581.72</t>
+          <t>2631.39</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2583.14</t>
+          <t>2632.23</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2164.78</t>
+          <t>1793.29</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2224.35</t>
+          <t>1850.04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>406.43</t>
+          <t>191.93</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1936.18</t>
+          <t>1615.48</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1546.12</t>
+          <t>1264.06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1541.58</t>
+          <t>1262.32</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1470.33</t>
+          <t>1200.54</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1508.45</t>
+          <t>1226.32</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2566.60</t>
+          <t>2093.56</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2632.51</t>
+          <t>2162.65</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2229.53</t>
+          <t>1874.65</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2207.73</t>
+          <t>1791.85</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1688.42</t>
+          <t>1374.51</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1684.45</t>
+          <t>1368.91</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1616.87</t>
+          <t>1323.61</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1622.63</t>
+          <t>1333.08</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2548.14</t>
+          <t>2069.99</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2607.43</t>
+          <t>2136.21</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2190.69</t>
+          <t>1763.98</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2213.30</t>
+          <t>1780.13</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1664.39</t>
+          <t>1342.99</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1659.85</t>
+          <t>1339.17</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1591.36</t>
+          <t>1300.41</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1589.80</t>
+          <t>1296.03</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2558.06</t>
+          <t>2067.29</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2610.93</t>
+          <t>2136.54</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2210.15</t>
+          <t>1760.55</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2231.99</t>
+          <t>1780.25</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1668.34</t>
+          <t>1343.40</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1662.14</t>
+          <t>1339.69</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1591.89</t>
+          <t>1299.86</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1589.31</t>
+          <t>1294.53</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2568.46</t>
+          <t>2068.73</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2619.26</t>
+          <t>2139.58</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>2223.17</t>
+          <t>1763.19</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>2241.34</t>
+          <t>1784.20</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1672.09</t>
+          <t>1346.60</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1666.00</t>
+          <t>1342.95</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1598.91</t>
+          <t>1302.51</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1597.33</t>
+          <t>1296.92</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2579.63</t>
+          <t>2071.11</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2634.81</t>
+          <t>2145.99</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>2233.96</t>
+          <t>1764.86</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2250.01</t>
+          <t>1788.43</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1676.61</t>
+          <t>1349.91</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1675.59</t>
+          <t>1346.30</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1605.99</t>
+          <t>1305.43</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1601.73</t>
+          <t>1299.76</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2590.91</t>
+          <t>2069.46</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2654.59</t>
+          <t>2149.96</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>2244.63</t>
+          <t>1772.72</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2258.75</t>
+          <t>1793.01</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1689.16</t>
+          <t>1353.77</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1684.55</t>
+          <t>1350.15</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1612.55</t>
+          <t>1308.93</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1606.92</t>
+          <t>1303.24</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2606.79</t>
+          <t>2073.59</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2671.88</t>
+          <t>2159.49</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>2261.06</t>
+          <t>1785.49</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>2273.95</t>
+          <t>1801.32</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1704.43</t>
+          <t>1363.00</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1700.77</t>
+          <t>1359.29</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1624.31</t>
+          <t>1318.23</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1618.78</t>
+          <t>1312.46</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2696.64</t>
+          <t>2142.36</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>2765.49</t>
+          <t>2236.85</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>2342.73</t>
+          <t>1857.41</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>2366.70</t>
+          <t>1879.51</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>1800.17</t>
+          <t>1435.05</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>1793.02</t>
+          <t>1431.52</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1713.57</t>
+          <t>1367.41</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1707.56</t>
+          <t>1373.56</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>3089.52</t>
+          <t>2543.21</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3122.22</t>
+          <t>2566.78</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>2720.66</t>
+          <t>2241.81</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>2868.20</t>
+          <t>2231.92</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>2208.47</t>
+          <t>1772.89</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>2190.56</t>
+          <t>1761.76</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>2254.94</t>
+          <t>1807.71</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>2255.37</t>
+          <t>1809.40</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2497.83</t>
+          <t>2530.83</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2471.24</t>
+          <t>2509.82</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1283.32</t>
+          <t>987.10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2167.24</t>
+          <t>2192.24</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1778.72</t>
+          <t>1807.74</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1773.20</t>
+          <t>1801.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1758.09</t>
+          <t>1800.97</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1761.79</t>
+          <t>1806.03</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2932.49</t>
+          <t>2972.85</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2892.97</t>
+          <t>2911.20</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2488.56</t>
+          <t>2573.13</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2436.92</t>
+          <t>2422.28</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1940.75</t>
+          <t>1889.01</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1932.42</t>
+          <t>1881.46</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1930.61</t>
+          <t>1960.14</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1928.01</t>
+          <t>1959.96</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2926.41</t>
+          <t>2957.20</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2902.56</t>
+          <t>2933.95</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2461.52</t>
+          <t>2529.41</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2422.00</t>
+          <t>2443.48</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1937.61</t>
+          <t>1872.18</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1931.35</t>
+          <t>1864.04</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1909.66</t>
+          <t>1934.16</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1904.09</t>
+          <t>1930.07</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2934.79</t>
+          <t>2975.57</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2907.51</t>
+          <t>2979.68</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2478.51</t>
+          <t>2518.72</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2426.25</t>
+          <t>2438.14</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1940.90</t>
+          <t>1954.56</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1933.48</t>
+          <t>1945.09</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1872.03</t>
+          <t>1916.69</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1864.22</t>
+          <t>1910.23</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>2931.64</t>
+          <t>2998.52</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2900.37</t>
+          <t>2894.85</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2489.61</t>
+          <t>2538.44</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2435.01</t>
+          <t>2446.39</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1923.87</t>
+          <t>1959.91</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1917.14</t>
+          <t>1952.40</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1873.06</t>
+          <t>1909.17</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1866.78</t>
+          <t>1901.52</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2946.09</t>
+          <t>3007.61</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2904.38</t>
+          <t>2905.56</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2501.92</t>
+          <t>2547.02</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2444.84</t>
+          <t>2454.12</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1927.79</t>
+          <t>1962.01</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1921.47</t>
+          <t>1954.47</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1876.80</t>
+          <t>1910.87</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1871.19</t>
+          <t>1904.73</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2961.83</t>
+          <t>3013.58</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2917.48</t>
+          <t>2912.60</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2514.17</t>
+          <t>2558.12</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2454.79</t>
+          <t>2462.33</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1933.76</t>
+          <t>1965.97</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1926.52</t>
+          <t>1958.06</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1882.86</t>
+          <t>1932.50</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1875.86</t>
+          <t>1920.59</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>2973.50</t>
+          <t>3025.98</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2942.71</t>
+          <t>2926.12</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2529.27</t>
+          <t>2569.47</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2465.53</t>
+          <t>2476.98</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1945.41</t>
+          <t>1976.30</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1938.32</t>
+          <t>1968.82</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1894.44</t>
+          <t>1946.74</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1887.49</t>
+          <t>1939.86</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3070.28</t>
+          <t>3094.38</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3037.29</t>
+          <t>3020.16</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2617.92</t>
+          <t>2635.32</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2574.55</t>
+          <t>2571.68</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2037.34</t>
+          <t>2061.98</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2033.64</t>
+          <t>2054.59</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1990.03</t>
+          <t>2025.32</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1982.04</t>
+          <t>2018.58</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>3859.53</t>
+          <t>3922.91</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3764.81</t>
+          <t>3729.32</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3371.90</t>
+          <t>3400.11</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3139.68</t>
+          <t>3044.71</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2486.41</t>
+          <t>2449.20</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2469.83</t>
+          <t>2432.07</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2642.87</t>
+          <t>2659.21</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2643.94</t>
+          <t>2659.67</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
